--- a/outputs/Portfolio_solutions.xlsx
+++ b/outputs/Portfolio_solutions.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Finish Date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Predecessors</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Successors</t>
         </is>
@@ -495,8 +505,18 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>08-01-2023</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
+        <is>
+          <t>08-01-2023</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -524,10 +544,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>08-01-2023</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>07-02-2023</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>4, 5</t>
         </is>
@@ -555,10 +585,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>07-02-2023</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>16-07-2023</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>56</t>
         </is>
@@ -586,10 +626,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>07-02-2023</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>12-02-2023</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -617,10 +667,20 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>12-02-2023</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>7, 8, 9</t>
         </is>
@@ -648,10 +708,20 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>25-02-2023</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>10, 11, 12, 13, 14</t>
         </is>
@@ -679,12 +749,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>25-02-2023</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>05-03-2023</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>10, 11, 12, 13, 29</t>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>10, 11, 12, 13, 23</t>
         </is>
       </c>
     </row>
@@ -710,10 +790,20 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>05-03-2023</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>13-03-2023</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>10, 11, 12, 13</t>
         </is>
@@ -741,12 +831,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>13-03-2023</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>12-04-2023</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>7, 8, 9</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>14, 29, 54</t>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>14, 23, 54</t>
         </is>
       </c>
     </row>
@@ -772,10 +872,20 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>13-03-2023</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>07-04-2023</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>7, 8, 9</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>54</t>
         </is>
@@ -803,10 +913,20 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>07-04-2023</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>16-04-2023</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>7, 8, 9</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>54</t>
         </is>
@@ -834,12 +954,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>13-03-2023</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>28-03-2023</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>7, 8, 9</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>14, 15, 16, 29, 30, 31, 42, 43, 41</t>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>14, 29, 15, 23, 19, 35, 42, 43, 28</t>
         </is>
       </c>
     </row>
@@ -865,12 +995,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>12-04-2023</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>19-04-2023</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>7, 10, 13</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>15, 23</t>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>29, 17</t>
         </is>
       </c>
     </row>
@@ -889,19 +1029,29 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E15" t="n">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>19-04-2023</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>29-04-2023</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>8, 10, 13</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>30</t>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -920,19 +1070,29 @@
         <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E16" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>29-04-2023</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>04-05-2023</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>13, 14</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>17, 18, 19, 20, 21, 16</t>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>30, 20, 16, 31, 33, 15</t>
         </is>
       </c>
     </row>
@@ -951,19 +1111,29 @@
         <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E17" t="n">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>13, 29</t>
+          <t>04-05-2023</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>32, 31, 33</t>
+          <t>07-05-2023</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>13, 23</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>24, 35, 37</t>
         </is>
       </c>
     </row>
@@ -982,19 +1152,29 @@
         <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E18" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>07-05-2023</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>09-05-2023</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -1013,19 +1193,29 @@
         <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E19" t="n">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>13, 15</t>
+          <t>09-05-2023</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14-05-2023</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>13, 29</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -1044,19 +1234,29 @@
         <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E20" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>13, 30</t>
+          <t>29-04-2023</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>06-05-2023</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>13, 19</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -1075,19 +1275,29 @@
         <v>14</v>
       </c>
       <c r="D21" t="n">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E21" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>06-05-2023</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>13-05-2023</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -1106,19 +1316,29 @@
         <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E22" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>15, 20</t>
+          <t>13-05-2023</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>15-05-2023</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>29, 31</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -1137,19 +1357,29 @@
         <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E23" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>15, 16</t>
+          <t>15-05-2023</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16-05-2023</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>29, 15</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -1168,19 +1398,29 @@
         <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E24" t="n">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>30, 31</t>
+          <t>16-05-2023</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>34, 35, 36FC+8</t>
+          <t>17-05-2023</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>19, 35</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>25, 38, 26FC+8</t>
         </is>
       </c>
     </row>
@@ -1199,19 +1439,29 @@
         <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E25" t="n">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17-05-2023</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25-05-2023</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -1230,19 +1480,29 @@
         <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="E26" t="n">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>15, 17</t>
+          <t>30-05-2023</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>04-06-2023</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>29, 30</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -1261,19 +1521,29 @@
         <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E27" t="n">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>04-06-2023</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>10-06-2023</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -1292,19 +1562,29 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="E28" t="n">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>32FC+8</t>
+          <t>10-06-2023</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>12-06-2023</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>24FC+8</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -1323,19 +1603,29 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="E29" t="n">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>22, 14</t>
+          <t>12-04-2023</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18-04-2023</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>21, 14</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -1354,19 +1644,29 @@
         <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="E30" t="n">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>15, 18</t>
+          <t>18-04-2023</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27-04-2023</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>29, 20</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -1385,19 +1685,29 @@
         <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E31" t="n">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>34, 32, 33</t>
+          <t>27-04-2023</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>02-05-2023</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>25, 24, 37</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -1416,19 +1726,29 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E32" t="n">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>02-05-2023</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>05-05-2023</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -1447,19 +1767,29 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="E33" t="n">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>36, 35</t>
+          <t>27-04-2023</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>38FC+5</t>
+          <t>11-05-2023</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>26, 38</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>40FC+5</t>
         </is>
       </c>
     </row>
@@ -1478,19 +1808,29 @@
         <v>8</v>
       </c>
       <c r="D34" t="n">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E34" t="n">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>24, 19</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>26FC+5</t>
+          <t>13-05-2023</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>32, 16</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>18FC+5</t>
         </is>
       </c>
     </row>
@@ -1509,19 +1849,29 @@
         <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="E35" t="n">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>37FC+5</t>
+          <t>13-05-2023</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>39, 40</t>
+          <t>16-05-2023</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>39FC+5</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>27, 41</t>
         </is>
       </c>
     </row>
@@ -1540,19 +1890,29 @@
         <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E36" t="n">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>25FC+5</t>
+          <t>13-05-2023</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>27, 28</t>
+          <t>16-05-2023</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>22FC+5</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>34, 36</t>
         </is>
       </c>
     </row>
@@ -1571,17 +1931,27 @@
         <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="E37" t="n">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>16-05-2023</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
+        <is>
+          <t>24-05-2023</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>53</t>
         </is>
@@ -1602,19 +1972,29 @@
         <v>8</v>
       </c>
       <c r="D38" t="n">
+        <v>141</v>
+      </c>
+      <c r="E38" t="n">
         <v>146</v>
       </c>
-      <c r="E38" t="n">
-        <v>154</v>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>29-05-2023</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>41, 53</t>
+          <t>03-06-2023</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>28, 53</t>
         </is>
       </c>
     </row>
@@ -1633,19 +2013,29 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E39" t="n">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>03-06-2023</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06-06-2023</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -1664,19 +2054,29 @@
         <v>6</v>
       </c>
       <c r="D40" t="n">
+        <v>146</v>
+      </c>
+      <c r="E40" t="n">
         <v>154</v>
       </c>
-      <c r="E40" t="n">
-        <v>160</v>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>40, 13</t>
+          <t>03-06-2023</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>42, 46, 47</t>
+          <t>11-06-2023</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>41, 13</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>42, 44, 46</t>
         </is>
       </c>
     </row>
@@ -1695,17 +2095,27 @@
         <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E41" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>26, 27</t>
+          <t>11-06-2023</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
+        <is>
+          <t>17-06-2023</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>18, 34</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>53</t>
         </is>
@@ -1733,12 +2143,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>13, 41</t>
+          <t>17-06-2023</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>43, 45FC+5, 47</t>
+          <t>26-06-2023</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>13, 28</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>43, 47FC+5, 46</t>
         </is>
       </c>
     </row>
@@ -1764,12 +2184,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>26-06-2023</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>01-07-2023</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
           <t>13, 42</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>44</t>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -1791,14 +2221,24 @@
         <v>174</v>
       </c>
       <c r="E44" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>01-07-2023</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>04-07-2023</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
           <t>42FC+5</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>48</t>
         </is>
@@ -1819,17 +2259,27 @@
         <v>10</v>
       </c>
       <c r="D45" t="n">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E45" t="n">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>41, 42</t>
+          <t>01-07-2023</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
+        <is>
+          <t>03-07-2023</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>28, 42</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>48</t>
         </is>
@@ -1850,19 +2300,29 @@
         <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E46" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>04-07-2023</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>06-07-2023</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
           <t>43</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>46</t>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -1881,17 +2341,27 @@
         <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E47" t="n">
         <v>179</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>41, 44</t>
+          <t>26-06-2023</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
+        <is>
+          <t>06-07-2023</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>28, 45</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>48</t>
         </is>
@@ -1919,10 +2389,20 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>46, 45, 47</t>
+          <t>06-07-2023</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>44, 47, 46</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>49FC+5</t>
         </is>
@@ -1950,10 +2430,20 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>19-07-2023</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>24-07-2023</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
           <t>48FC+5</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>50, 51, 52FC+2</t>
         </is>
@@ -1981,10 +2471,20 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>24-07-2023</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>27-07-2023</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
           <t>49</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>53</t>
         </is>
@@ -2012,10 +2512,20 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>24-07-2023</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>27-07-2023</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
           <t>49</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>53</t>
         </is>
@@ -2043,10 +2553,20 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>26-07-2023</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>27-07-2023</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
           <t>49FC+2</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>53</t>
         </is>
@@ -2074,10 +2594,20 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>28, 40, 52, 39, 50, 51</t>
+          <t>27-07-2023</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
+        <is>
+          <t>30-07-2023</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>36, 41, 52, 27, 50, 51</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>54</t>
         </is>
@@ -2105,10 +2635,20 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>30-07-2023</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>31-07-2023</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
           <t>10, 11, 12, 53</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>55</t>
         </is>
@@ -2136,10 +2676,20 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>31-07-2023</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>01-08-2023</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
           <t>54</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>56</t>
         </is>
@@ -2167,10 +2717,20 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>01-08-2023</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
           <t>4, 55</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>57</t>
         </is>
@@ -2198,10 +2758,20 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>05-08-2023</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
           <t>56</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>58</t>
         </is>
@@ -2229,10 +2799,20 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>05-08-2023</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>05-08-2023</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
           <t>57</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2245,7 +2825,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2281,10 +2861,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Finish Date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Predecessors</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Successors</t>
         </is>
@@ -2310,8 +2900,18 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>08-01-2023</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
+        <is>
+          <t>08-01-2023</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -2339,10 +2939,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>08-01-2023</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>07-02-2023</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>4, 5</t>
         </is>
@@ -2370,10 +2980,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>07-02-2023</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>16-07-2023</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>56</t>
         </is>
@@ -2401,10 +3021,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>07-02-2023</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>12-02-2023</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -2432,10 +3062,20 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>12-02-2023</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>7, 8, 9</t>
         </is>
@@ -2463,10 +3103,20 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>25-02-2023</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>10, 11, 12, 13, 14</t>
         </is>
@@ -2494,12 +3144,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>25-02-2023</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>10, 11, 12, 13, 29</t>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>10, 11, 12, 13, 23</t>
         </is>
       </c>
     </row>
@@ -2525,10 +3185,20 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>25-02-2023</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>10, 11, 12, 13</t>
         </is>
@@ -2556,12 +3226,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>25-02-2023</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>27-03-2023</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>7, 8, 9</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>14, 29, 54</t>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>14, 23, 54</t>
         </is>
       </c>
     </row>
@@ -2587,10 +3267,20 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>25-02-2023</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>22-03-2023</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>7, 8, 9</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>54</t>
         </is>
@@ -2618,10 +3308,20 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>25-02-2023</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>06-03-2023</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>7, 8, 9</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>54</t>
         </is>
@@ -2649,12 +3349,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>25-02-2023</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>12-03-2023</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>7, 8, 9</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>14, 15, 16, 29, 30, 31, 42, 43, 41</t>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>14, 29, 15, 23, 19, 35, 42, 43, 28</t>
         </is>
       </c>
     </row>
@@ -2680,12 +3390,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>27-03-2023</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>03-04-2023</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>7, 10, 13</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>15, 23</t>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>29, 17</t>
         </is>
       </c>
     </row>
@@ -2704,19 +3424,29 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E15" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>03-04-2023</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>13-04-2023</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>8, 10, 13</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>30</t>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -2735,19 +3465,29 @@
         <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E16" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>13-04-2023</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>18-04-2023</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>13, 14</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>17, 18, 19, 20, 21, 16</t>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>30, 20, 16, 31, 33, 15</t>
         </is>
       </c>
     </row>
@@ -2766,19 +3506,29 @@
         <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E17" t="n">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>13, 29</t>
+          <t>18-04-2023</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>32, 31, 33</t>
+          <t>21-04-2023</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>13, 23</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>24, 35, 37</t>
         </is>
       </c>
     </row>
@@ -2797,19 +3547,29 @@
         <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E18" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23-04-2023</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -2828,19 +3588,29 @@
         <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E19" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>13, 15</t>
+          <t>23-04-2023</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>28-04-2023</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>13, 29</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -2859,19 +3629,29 @@
         <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E20" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>13, 30</t>
+          <t>13-04-2023</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>20-04-2023</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>13, 19</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -2890,19 +3670,29 @@
         <v>14</v>
       </c>
       <c r="D21" t="n">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E21" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20-04-2023</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>27-04-2023</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -2921,19 +3711,29 @@
         <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E22" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>15, 20</t>
+          <t>27-04-2023</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29-04-2023</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>29, 31</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -2952,19 +3752,29 @@
         <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E23" t="n">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>15, 16</t>
+          <t>29-04-2023</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>30-04-2023</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>29, 15</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -2983,19 +3793,29 @@
         <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E24" t="n">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>30, 31</t>
+          <t>30-04-2023</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>34, 35, 36FC+8</t>
+          <t>01-05-2023</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>19, 35</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>25, 38, 26FC+8</t>
         </is>
       </c>
     </row>
@@ -3014,19 +3834,29 @@
         <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E25" t="n">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>01-05-2023</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>09-05-2023</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -3045,19 +3875,29 @@
         <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="E26" t="n">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>15, 17</t>
+          <t>14-05-2023</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>19-05-2023</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>29, 30</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -3076,19 +3916,29 @@
         <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="E27" t="n">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>25-05-2023</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -3107,19 +3957,29 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="E28" t="n">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>32FC+8</t>
+          <t>25-05-2023</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>27-05-2023</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>24FC+8</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -3138,19 +3998,29 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="E29" t="n">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>22, 14</t>
+          <t>27-03-2023</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>02-04-2023</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>21, 14</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -3169,19 +4039,29 @@
         <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="E30" t="n">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>15, 18</t>
+          <t>02-04-2023</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>11-04-2023</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>29, 20</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -3200,19 +4080,29 @@
         <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E31" t="n">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>34, 32, 33</t>
+          <t>11-04-2023</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>16-04-2023</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>25, 24, 37</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -3231,19 +4121,29 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E32" t="n">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>16-04-2023</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>19-04-2023</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -3262,19 +4162,29 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="E33" t="n">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>36, 35</t>
+          <t>11-04-2023</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>38FC+5</t>
+          <t>25-04-2023</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>26, 38</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>40FC+5</t>
         </is>
       </c>
     </row>
@@ -3293,19 +4203,29 @@
         <v>8</v>
       </c>
       <c r="D34" t="n">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E34" t="n">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>24, 19</t>
+          <t>19-04-2023</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>26FC+5</t>
+          <t>27-04-2023</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>32, 16</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>18FC+5</t>
         </is>
       </c>
     </row>
@@ -3324,19 +4244,29 @@
         <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E35" t="n">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>37FC+5</t>
+          <t>27-04-2023</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>39, 40</t>
+          <t>30-04-2023</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>39FC+5</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>27, 41</t>
         </is>
       </c>
     </row>
@@ -3355,19 +4285,29 @@
         <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E36" t="n">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>25FC+5</t>
+          <t>27-04-2023</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>27, 28</t>
+          <t>30-04-2023</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>22FC+5</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>34, 36</t>
         </is>
       </c>
     </row>
@@ -3386,17 +4326,27 @@
         <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E37" t="n">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>30-04-2023</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
+        <is>
+          <t>08-05-2023</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>53</t>
         </is>
@@ -3417,19 +4367,29 @@
         <v>8</v>
       </c>
       <c r="D38" t="n">
+        <v>125</v>
+      </c>
+      <c r="E38" t="n">
         <v>130</v>
       </c>
-      <c r="E38" t="n">
-        <v>138</v>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>13-05-2023</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>41, 53</t>
+          <t>18-05-2023</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>28, 53</t>
         </is>
       </c>
     </row>
@@ -3448,19 +4408,29 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E39" t="n">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>18-05-2023</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>21-05-2023</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -3479,19 +4449,29 @@
         <v>6</v>
       </c>
       <c r="D40" t="n">
+        <v>130</v>
+      </c>
+      <c r="E40" t="n">
         <v>138</v>
       </c>
-      <c r="E40" t="n">
-        <v>144</v>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>40, 13</t>
+          <t>18-05-2023</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>42, 46, 47</t>
+          <t>26-05-2023</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>41, 13</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>42, 44, 46</t>
         </is>
       </c>
     </row>
@@ -3510,17 +4490,27 @@
         <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E41" t="n">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>26, 27</t>
+          <t>26-05-2023</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
+        <is>
+          <t>01-06-2023</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>18, 34</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>53</t>
         </is>
@@ -3548,12 +4538,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>13, 41</t>
+          <t>01-06-2023</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>43, 45FC+5, 47</t>
+          <t>10-06-2023</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>13, 28</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>43, 47FC+5, 46</t>
         </is>
       </c>
     </row>
@@ -3579,12 +4579,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>10-06-2023</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>15-06-2023</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
           <t>13, 42</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>44</t>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -3606,14 +4616,24 @@
         <v>158</v>
       </c>
       <c r="E44" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>15-06-2023</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>18-06-2023</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
           <t>42FC+5</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>48</t>
         </is>
@@ -3634,17 +4654,27 @@
         <v>10</v>
       </c>
       <c r="D45" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E45" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>41, 42</t>
+          <t>15-06-2023</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
+        <is>
+          <t>17-06-2023</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>28, 42</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>48</t>
         </is>
@@ -3665,19 +4695,29 @@
         <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E46" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>18-06-2023</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>20-06-2023</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
           <t>43</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>46</t>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -3696,17 +4736,27 @@
         <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E47" t="n">
         <v>163</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>41, 44</t>
+          <t>10-06-2023</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
+        <is>
+          <t>20-06-2023</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>28, 45</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>48</t>
         </is>
@@ -3734,10 +4784,20 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>46, 45, 47</t>
+          <t>20-06-2023</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
+        <is>
+          <t>28-06-2023</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>44, 47, 46</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>49FC+5</t>
         </is>
@@ -3765,10 +4825,20 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>03-07-2023</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>08-07-2023</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
           <t>48FC+5</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>50, 51, 52FC+2</t>
         </is>
@@ -3796,10 +4866,20 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>08-07-2023</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>11-07-2023</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
           <t>49</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>53</t>
         </is>
@@ -3827,10 +4907,20 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>08-07-2023</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>11-07-2023</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
           <t>49</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>53</t>
         </is>
@@ -3858,10 +4948,20 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>10-07-2023</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>11-07-2023</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
           <t>49FC+2</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>53</t>
         </is>
@@ -3889,10 +4989,20 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>28, 40, 52, 39, 50, 51</t>
+          <t>11-07-2023</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>36, 41, 52, 27, 50, 51</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>54</t>
         </is>
@@ -3920,10 +5030,20 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>15-07-2023</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
           <t>10, 11, 12, 53</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>55</t>
         </is>
@@ -3951,10 +5071,20 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>15-07-2023</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>16-07-2023</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
           <t>54</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>56</t>
         </is>
@@ -3982,10 +5112,20 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>16-07-2023</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>19-07-2023</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
           <t>4, 55</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>57</t>
         </is>
@@ -4013,10 +5153,20 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>19-07-2023</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>20-07-2023</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
           <t>56</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>58</t>
         </is>
@@ -4044,10 +5194,20 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>20-07-2023</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>20-07-2023</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
           <t>57</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4060,7 +5220,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4096,10 +5256,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Finish Date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Predecessors</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Successors</t>
         </is>
@@ -4120,13 +5290,23 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>18-01-2023</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
+        <is>
+          <t>18-01-2023</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -4147,17 +5327,27 @@
         <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>18-01-2023</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>19-03-2023</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>6, 8</t>
         </is>
@@ -4178,17 +5368,27 @@
         <v>516</v>
       </c>
       <c r="D4" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E4" t="n">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>19-03-2023</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>16-08-2024</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>44</t>
         </is>
@@ -4209,17 +5409,27 @@
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E5" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>19-03-2023</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>18-04-2023</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -4240,17 +5450,27 @@
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>18-04-2023</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>18-05-2023</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>11, 12FC+5</t>
         </is>
@@ -4271,17 +5491,27 @@
         <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E7" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>18-05-2023</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>07-06-2023</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
@@ -4302,17 +5532,27 @@
         <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E8" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>23-05-2023</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>07-06-2023</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>9FC+5</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>13</t>
         </is>
@@ -4333,17 +5573,27 @@
         <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E9" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>07-06-2023</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>27-06-2023</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>11, 12</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>15, 16, 17, 19FC+20, 20FC+35, 21</t>
         </is>
@@ -4364,17 +5614,27 @@
         <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E10" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>27-06-2023</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>27-07-2023</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -4395,17 +5655,27 @@
         <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="E11" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>27-07-2023</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>26-08-2023</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -4426,17 +5696,27 @@
         <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E12" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>26-08-2023</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>25-09-2023</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -4457,17 +5737,27 @@
         <v>45</v>
       </c>
       <c r="D13" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E13" t="n">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>17-07-2023</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>31-08-2023</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>13FC+20</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>24, 25, 27, 28, 30, 31, 33, 34, 35, 36</t>
         </is>
@@ -4488,17 +5778,27 @@
         <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="E14" t="n">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>31-08-2023</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>30-09-2023</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>13FC+35</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>38, 39, 40</t>
         </is>
@@ -4519,17 +5819,27 @@
         <v>70</v>
       </c>
       <c r="D15" t="n">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="E15" t="n">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>30-09-2023</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>09-12-2023</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>23, 24, 25, 27, 28, 30, 31, 33, 34, 35, 36, 38, 39, 40</t>
         </is>
@@ -4550,17 +5860,27 @@
         <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="E16" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>09-12-2023</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>03-01-2024</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>15, 16, 17, 21</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>24</t>
         </is>
@@ -4581,17 +5901,27 @@
         <v>18</v>
       </c>
       <c r="D17" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="E17" t="n">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>03-01-2024</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>21-01-2024</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>19, 21, 23</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>25</t>
         </is>
@@ -4612,17 +5942,27 @@
         <v>43</v>
       </c>
       <c r="D18" t="n">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="E18" t="n">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>21-01-2024</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>04-03-2024</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>19, 21, 24</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>27, 28</t>
         </is>
@@ -4643,17 +5983,27 @@
         <v>36</v>
       </c>
       <c r="D19" t="n">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="E19" t="n">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>04-03-2024</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>09-04-2024</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t>19, 21, 25</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>28</t>
         </is>
@@ -4674,17 +6024,27 @@
         <v>39</v>
       </c>
       <c r="D20" t="n">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="E20" t="n">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>09-04-2024</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>18-05-2024</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>19, 21, 25, 27</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>30</t>
         </is>
@@ -4705,17 +6065,27 @@
         <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="E21" t="n">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>18-05-2024</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>02-06-2024</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>19, 21, 28</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>31</t>
         </is>
@@ -4736,17 +6106,27 @@
         <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="E22" t="n">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>02-06-2024</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>09-06-2024</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>19, 21, 30</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>33</t>
         </is>
@@ -4767,17 +6147,27 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="E23" t="n">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>09-06-2024</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>19-06-2024</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>19, 21, 31</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>34, 38</t>
         </is>
@@ -4798,17 +6188,27 @@
         <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="E24" t="n">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>19-06-2024</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
           <t>19, 21, 33</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>35, 36, 38</t>
         </is>
@@ -4829,17 +6229,27 @@
         <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="E25" t="n">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>04-07-2024</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>19, 21, 34</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>38</t>
         </is>
@@ -4860,17 +6270,27 @@
         <v>60</v>
       </c>
       <c r="D26" t="n">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="E26" t="n">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>28-08-2024</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
           <t>19, 21, 34</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>38</t>
         </is>
@@ -4891,17 +6311,27 @@
         <v>22</v>
       </c>
       <c r="D27" t="n">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="E27" t="n">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>28-08-2024</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>19-09-2024</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
           <t>20, 21, 33, 34, 35, 36</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>39</t>
         </is>
@@ -4922,17 +6352,27 @@
         <v>15</v>
       </c>
       <c r="D28" t="n">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="E28" t="n">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>19-09-2024</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>04-10-2024</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
           <t>20, 21, 38</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>40</t>
         </is>
@@ -4953,17 +6393,27 @@
         <v>15</v>
       </c>
       <c r="D29" t="n">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="E29" t="n">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>04-10-2024</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>19-10-2024</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
           <t>20, 21, 39</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>42</t>
         </is>
@@ -4984,17 +6434,27 @@
         <v>15</v>
       </c>
       <c r="D30" t="n">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="E30" t="n">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>19-10-2024</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>03-11-2024</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>43</t>
         </is>
@@ -5015,17 +6475,27 @@
         <v>10</v>
       </c>
       <c r="D31" t="n">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="E31" t="n">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>03-11-2024</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>13-11-2024</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
           <t>42</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>44</t>
         </is>
@@ -5046,17 +6516,27 @@
         <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="E32" t="n">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>13-11-2024</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>18-11-2024</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
           <t>43, 6</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>46</t>
         </is>
@@ -5077,17 +6557,27 @@
         <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="E33" t="n">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>18-11-2024</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>21-11-2024</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
           <t>44</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>47</t>
         </is>
@@ -5108,17 +6598,27 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="E34" t="n">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>21-11-2024</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>22-11-2024</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>48</t>
         </is>
@@ -5139,17 +6639,27 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="E35" t="n">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>22-11-2024</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>22-11-2024</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
           <t>47</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5162,7 +6672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5198,10 +6708,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Finish Date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Predecessors</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Successors</t>
         </is>
@@ -5222,13 +6742,23 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>18-01-2023</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
+        <is>
+          <t>18-01-2023</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -5249,17 +6779,27 @@
         <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>18-01-2023</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>19-03-2023</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>6, 8</t>
         </is>
@@ -5280,17 +6820,27 @@
         <v>516</v>
       </c>
       <c r="D4" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E4" t="n">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>19-03-2023</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>16-08-2024</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>44</t>
         </is>
@@ -5311,17 +6861,27 @@
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E5" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>19-03-2023</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>18-04-2023</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -5342,17 +6902,27 @@
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>18-04-2023</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>18-05-2023</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>11, 12FC+5</t>
         </is>
@@ -5373,17 +6943,27 @@
         <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E7" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>18-05-2023</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>07-06-2023</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
@@ -5404,17 +6984,27 @@
         <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E8" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>23-05-2023</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>07-06-2023</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>9FC+5</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>13</t>
         </is>
@@ -5435,17 +7025,27 @@
         <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E9" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>07-06-2023</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>27-06-2023</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>11, 12</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>15, 16, 17, 19FC+20, 20FC+35, 21</t>
         </is>
@@ -5466,17 +7066,27 @@
         <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E10" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>27-06-2023</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>27-07-2023</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -5497,17 +7107,27 @@
         <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E11" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>27-06-2023</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>27-07-2023</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -5528,17 +7148,27 @@
         <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E12" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>27-06-2023</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>27-07-2023</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -5559,17 +7189,27 @@
         <v>45</v>
       </c>
       <c r="D13" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E13" t="n">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>17-07-2023</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>31-08-2023</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>13FC+20</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>24, 25, 27, 28, 30, 31, 33, 34, 35, 36</t>
         </is>
@@ -5590,17 +7230,27 @@
         <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E14" t="n">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>01-08-2023</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>31-08-2023</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>13FC+35</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>38, 39, 40</t>
         </is>
@@ -5621,17 +7271,27 @@
         <v>70</v>
       </c>
       <c r="D15" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E15" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>27-06-2023</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>05-09-2023</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>23, 24, 25, 27, 28, 30, 31, 33, 34, 35, 36, 38, 39, 40</t>
         </is>
@@ -5652,17 +7312,27 @@
         <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="E16" t="n">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>05-09-2023</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>30-09-2023</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>15, 16, 17, 21</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>24</t>
         </is>
@@ -5683,17 +7353,27 @@
         <v>18</v>
       </c>
       <c r="D17" t="n">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="E17" t="n">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>30-09-2023</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>18-10-2023</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>19, 21, 23</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>25</t>
         </is>
@@ -5714,17 +7394,27 @@
         <v>43</v>
       </c>
       <c r="D18" t="n">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="E18" t="n">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>18-10-2023</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>30-11-2023</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>19, 21, 24</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>27, 28</t>
         </is>
@@ -5745,17 +7435,27 @@
         <v>36</v>
       </c>
       <c r="D19" t="n">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="E19" t="n">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>30-11-2023</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>05-01-2024</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t>19, 21, 25</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>28</t>
         </is>
@@ -5776,17 +7476,27 @@
         <v>39</v>
       </c>
       <c r="D20" t="n">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="E20" t="n">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>05-01-2024</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>13-02-2024</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>19, 21, 25, 27</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>30</t>
         </is>
@@ -5807,17 +7517,27 @@
         <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="E21" t="n">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>13-02-2024</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>28-02-2024</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>19, 21, 28</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>31</t>
         </is>
@@ -5838,17 +7558,27 @@
         <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="E22" t="n">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>28-02-2024</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>06-03-2024</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>19, 21, 30</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>33</t>
         </is>
@@ -5869,17 +7599,27 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="E23" t="n">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>06-03-2024</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>16-03-2024</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>19, 21, 31</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>34, 38</t>
         </is>
@@ -5900,17 +7640,27 @@
         <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="E24" t="n">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>16-03-2024</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>26-03-2024</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
           <t>19, 21, 33</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>35, 36, 38</t>
         </is>
@@ -5931,17 +7681,27 @@
         <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="E25" t="n">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>26-03-2024</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>31-03-2024</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>19, 21, 34</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>38</t>
         </is>
@@ -5962,17 +7722,27 @@
         <v>60</v>
       </c>
       <c r="D26" t="n">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="E26" t="n">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>26-03-2024</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>25-05-2024</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
           <t>19, 21, 34</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>38</t>
         </is>
@@ -5993,17 +7763,27 @@
         <v>22</v>
       </c>
       <c r="D27" t="n">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="E27" t="n">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>25-05-2024</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>16-06-2024</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
           <t>20, 21, 33, 34, 35, 36</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>39</t>
         </is>
@@ -6024,17 +7804,27 @@
         <v>15</v>
       </c>
       <c r="D28" t="n">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="E28" t="n">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>16-06-2024</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>01-07-2024</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
           <t>20, 21, 38</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>40</t>
         </is>
@@ -6055,17 +7845,27 @@
         <v>15</v>
       </c>
       <c r="D29" t="n">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="E29" t="n">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>01-07-2024</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>16-07-2024</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
           <t>20, 21, 39</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>42</t>
         </is>
@@ -6086,17 +7886,27 @@
         <v>15</v>
       </c>
       <c r="D30" t="n">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="E30" t="n">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>16-07-2024</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>31-07-2024</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>43</t>
         </is>
@@ -6117,17 +7927,27 @@
         <v>10</v>
       </c>
       <c r="D31" t="n">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="E31" t="n">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>31-07-2024</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>10-08-2024</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
           <t>42</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>44</t>
         </is>
@@ -6148,17 +7968,27 @@
         <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="E32" t="n">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>16-08-2024</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>21-08-2024</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
           <t>43, 6</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>46</t>
         </is>
@@ -6179,17 +8009,27 @@
         <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="E33" t="n">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>21-08-2024</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>24-08-2024</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
           <t>44</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>47</t>
         </is>
@@ -6210,17 +8050,27 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E34" t="n">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>24-08-2024</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>25-08-2024</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>48</t>
         </is>
@@ -6241,17 +8091,27 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="E35" t="n">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>25-08-2024</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>25-08-2024</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
           <t>47</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6264,7 +8124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6300,10 +8160,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Finish Date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Predecessors</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Successors</t>
         </is>
@@ -6324,13 +8194,23 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>28-01-2023</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
+        <is>
+          <t>28-01-2023</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -6351,17 +8231,27 @@
         <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>28-01-2023</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>09-03-2023</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>6, 8</t>
         </is>
@@ -6382,17 +8272,27 @@
         <v>600</v>
       </c>
       <c r="D4" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E4" t="n">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>09-03-2023</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>29-10-2024</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>46</t>
         </is>
@@ -6413,17 +8313,27 @@
         <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>09-03-2023</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>24-03-2023</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>9FC+5, 11</t>
         </is>
@@ -6444,17 +8354,27 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E6" t="n">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>29-03-2023</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>06-04-2023</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>8FC+5</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -6475,17 +8395,27 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="E7" t="n">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>06-04-2023</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>14-04-2023</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>11</t>
         </is>
@@ -6506,19 +8436,29 @@
         <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="E8" t="n">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>14-04-2023</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>29-04-2023</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>10, 8</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>13, 18</t>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>13, 17</t>
         </is>
       </c>
     </row>
@@ -6537,19 +8477,29 @@
         <v>32</v>
       </c>
       <c r="D9" t="n">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E9" t="n">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>29-04-2023</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>31-05-2023</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>20, 34, 29, 14</t>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>20, 34, 29, 18</t>
         </is>
       </c>
     </row>
@@ -6568,17 +8518,27 @@
         <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="E10" t="n">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>31-05-2023</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>14-06-2023</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>45</t>
         </is>
@@ -6599,19 +8559,29 @@
         <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="E11" t="n">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>14-06-2023</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>29-06-2023</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>38, 39, 40, 16</t>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>38, 39, 40, 14</t>
         </is>
       </c>
     </row>
@@ -6630,19 +8600,29 @@
         <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="E12" t="n">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>29-06-2023</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20, 17</t>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>20, 16</t>
         </is>
       </c>
     </row>
@@ -6661,17 +8641,27 @@
         <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="E13" t="n">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>29-04-2023</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
+        <is>
+          <t>14-05-2023</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -6692,17 +8682,27 @@
         <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="E14" t="n">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>16, 17, 13</t>
+          <t>14-07-2023</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
+        <is>
+          <t>24-07-2023</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>14, 16, 13</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>21</t>
         </is>
@@ -6723,17 +8723,27 @@
         <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="E15" t="n">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>24-07-2023</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>03-08-2023</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -6754,17 +8764,27 @@
         <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="E16" t="n">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>03-08-2023</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -6785,17 +8805,27 @@
         <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="E17" t="n">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>02-09-2023</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>24</t>
         </is>
@@ -6816,17 +8846,27 @@
         <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E18" t="n">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>02-09-2023</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>17-09-2023</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>25</t>
         </is>
@@ -6847,17 +8887,27 @@
         <v>60</v>
       </c>
       <c r="D19" t="n">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="E19" t="n">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>17-09-2023</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>16-11-2023</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>26</t>
         </is>
@@ -6878,17 +8928,27 @@
         <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="E20" t="n">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>16-11-2023</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>16-12-2023</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>27</t>
         </is>
@@ -6909,17 +8969,27 @@
         <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="E21" t="n">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>16-12-2023</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>05-01-2024</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>29</t>
         </is>
@@ -6940,17 +9010,27 @@
         <v>42</v>
       </c>
       <c r="D22" t="n">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="E22" t="n">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>05-01-2024</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>16-02-2024</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>13, 27</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>30</t>
         </is>
@@ -6971,17 +9051,27 @@
         <v>42</v>
       </c>
       <c r="D23" t="n">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="E23" t="n">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>16-02-2024</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>29-03-2024</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>31</t>
         </is>
@@ -7002,17 +9092,27 @@
         <v>28</v>
       </c>
       <c r="D24" t="n">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="E24" t="n">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>29-03-2024</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>26-04-2024</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>32, 38</t>
         </is>
@@ -7033,17 +9133,27 @@
         <v>42</v>
       </c>
       <c r="D25" t="n">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="E25" t="n">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>26-04-2024</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>34, 38</t>
         </is>
@@ -7064,17 +9174,27 @@
         <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="E26" t="n">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>07-07-2024</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
           <t>13, 32</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>35</t>
         </is>
@@ -7095,17 +9215,27 @@
         <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="E27" t="n">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>07-07-2024</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>06-08-2024</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>36</t>
         </is>
@@ -7126,17 +9256,27 @@
         <v>45</v>
       </c>
       <c r="D28" t="n">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="E28" t="n">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>06-08-2024</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>20-09-2024</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
           <t>35</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>37</t>
         </is>
@@ -7157,17 +9297,27 @@
         <v>50</v>
       </c>
       <c r="D29" t="n">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="E29" t="n">
-        <v>651</v>
+        <v>671</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>20-09-2024</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>09-11-2024</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
           <t>36</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>38, 39</t>
         </is>
@@ -7188,17 +9338,27 @@
         <v>60</v>
       </c>
       <c r="D30" t="n">
-        <v>651</v>
+        <v>671</v>
       </c>
       <c r="E30" t="n">
-        <v>711</v>
+        <v>731</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>14, 37, 32, 31</t>
+          <t>09-11-2024</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
+        <is>
+          <t>08-01-2025</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>18, 37, 32, 31</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>39</t>
         </is>
@@ -7219,17 +9379,27 @@
         <v>70</v>
       </c>
       <c r="D31" t="n">
-        <v>711</v>
+        <v>731</v>
       </c>
       <c r="E31" t="n">
-        <v>781</v>
+        <v>801</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>38, 14, 37</t>
+          <t>08-01-2025</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
+        <is>
+          <t>19-03-2025</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>38, 18, 37</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>40, 42</t>
         </is>
@@ -7250,17 +9420,27 @@
         <v>50</v>
       </c>
       <c r="D32" t="n">
-        <v>781</v>
+        <v>801</v>
       </c>
       <c r="E32" t="n">
-        <v>831</v>
+        <v>851</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>39, 14</t>
+          <t>19-03-2025</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
+        <is>
+          <t>08-05-2025</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>39, 18</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>43, 42</t>
         </is>
@@ -7281,17 +9461,27 @@
         <v>15</v>
       </c>
       <c r="D33" t="n">
-        <v>831</v>
+        <v>851</v>
       </c>
       <c r="E33" t="n">
-        <v>846</v>
+        <v>866</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>08-05-2025</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>23-05-2025</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
           <t>39, 40</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>43</t>
         </is>
@@ -7312,17 +9502,27 @@
         <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>846</v>
+        <v>866</v>
       </c>
       <c r="E34" t="n">
-        <v>861</v>
+        <v>881</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>23-05-2025</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>07-06-2025</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
           <t>42, 40</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>44</t>
         </is>
@@ -7343,17 +9543,27 @@
         <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>861</v>
+        <v>881</v>
       </c>
       <c r="E35" t="n">
-        <v>871</v>
+        <v>891</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>07-06-2025</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>17-06-2025</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
           <t>43</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>45</t>
         </is>
@@ -7374,17 +9584,27 @@
         <v>10</v>
       </c>
       <c r="D36" t="n">
-        <v>871</v>
+        <v>891</v>
       </c>
       <c r="E36" t="n">
-        <v>881</v>
+        <v>901</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>18, 44</t>
+          <t>17-06-2025</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
+        <is>
+          <t>27-06-2025</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>17, 44</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>46</t>
         </is>
@@ -7405,17 +9625,27 @@
         <v>10</v>
       </c>
       <c r="D37" t="n">
-        <v>881</v>
+        <v>901</v>
       </c>
       <c r="E37" t="n">
-        <v>891</v>
+        <v>911</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>27-06-2025</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>07-07-2025</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
           <t>45, 6</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>48</t>
         </is>
@@ -7436,17 +9666,27 @@
         <v>20</v>
       </c>
       <c r="D38" t="n">
-        <v>891</v>
+        <v>911</v>
       </c>
       <c r="E38" t="n">
-        <v>911</v>
+        <v>931</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>07-07-2025</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>27-07-2025</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>49</t>
         </is>
@@ -7467,17 +9707,27 @@
         <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>911</v>
+        <v>931</v>
       </c>
       <c r="E39" t="n">
-        <v>941</v>
+        <v>961</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>27-07-2025</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>26-08-2025</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
           <t>48</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>50</t>
         </is>
@@ -7498,17 +9748,27 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>941</v>
+        <v>961</v>
       </c>
       <c r="E40" t="n">
-        <v>941</v>
+        <v>961</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>26-08-2025</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>26-08-2025</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
           <t>49</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7521,7 +9781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7557,10 +9817,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Finish Date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Predecessors</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Successors</t>
         </is>
@@ -7581,13 +9851,23 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>28-01-2023</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
+        <is>
+          <t>28-01-2023</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -7608,17 +9888,27 @@
         <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>28-01-2023</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>09-03-2023</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>6, 8</t>
         </is>
@@ -7639,17 +9929,27 @@
         <v>600</v>
       </c>
       <c r="D4" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E4" t="n">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>09-03-2023</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>29-10-2024</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>46</t>
         </is>
@@ -7670,17 +9970,27 @@
         <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>09-03-2023</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>24-03-2023</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>9FC+5, 11</t>
         </is>
@@ -7701,17 +10011,27 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E6" t="n">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>29-03-2023</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>06-04-2023</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>8FC+5</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -7732,17 +10052,27 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="E7" t="n">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>06-04-2023</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>14-04-2023</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>11</t>
         </is>
@@ -7763,19 +10093,29 @@
         <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="E8" t="n">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>14-04-2023</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>29-04-2023</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>10, 8</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>13, 18</t>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>13, 17</t>
         </is>
       </c>
     </row>
@@ -7794,19 +10134,29 @@
         <v>32</v>
       </c>
       <c r="D9" t="n">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E9" t="n">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>29-04-2023</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>31-05-2023</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>20, 34, 29, 14</t>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>20, 34, 29, 18</t>
         </is>
       </c>
     </row>
@@ -7825,17 +10175,27 @@
         <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="E10" t="n">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>31-05-2023</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>14-06-2023</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>45</t>
         </is>
@@ -7856,19 +10216,29 @@
         <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="E11" t="n">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>14-06-2023</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>29-06-2023</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>38, 39, 40, 16</t>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>38, 39, 40, 14</t>
         </is>
       </c>
     </row>
@@ -7887,19 +10257,29 @@
         <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="E12" t="n">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>29-06-2023</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20, 17</t>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>20, 16</t>
         </is>
       </c>
     </row>
@@ -7918,17 +10298,27 @@
         <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="E13" t="n">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>29-04-2023</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
+        <is>
+          <t>14-05-2023</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -7949,17 +10339,27 @@
         <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="E14" t="n">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>16, 17, 13</t>
+          <t>14-07-2023</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
+        <is>
+          <t>24-07-2023</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>14, 16, 13</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>21</t>
         </is>
@@ -7980,17 +10380,27 @@
         <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="E15" t="n">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>24-07-2023</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>03-08-2023</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -8011,17 +10421,27 @@
         <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="E16" t="n">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>03-08-2023</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -8042,17 +10462,27 @@
         <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="E17" t="n">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>02-09-2023</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>24</t>
         </is>
@@ -8073,17 +10503,27 @@
         <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E18" t="n">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>02-09-2023</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>17-09-2023</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>25</t>
         </is>
@@ -8104,17 +10544,27 @@
         <v>60</v>
       </c>
       <c r="D19" t="n">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="E19" t="n">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>17-09-2023</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>16-11-2023</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>26</t>
         </is>
@@ -8135,17 +10585,27 @@
         <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="E20" t="n">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>16-11-2023</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>16-12-2023</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>27</t>
         </is>
@@ -8166,17 +10626,27 @@
         <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="E21" t="n">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>16-12-2023</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>05-01-2024</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>29</t>
         </is>
@@ -8197,17 +10667,27 @@
         <v>42</v>
       </c>
       <c r="D22" t="n">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="E22" t="n">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>05-01-2024</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>16-02-2024</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>13, 27</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>30</t>
         </is>
@@ -8228,17 +10708,27 @@
         <v>42</v>
       </c>
       <c r="D23" t="n">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="E23" t="n">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>16-02-2024</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>29-03-2024</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>31</t>
         </is>
@@ -8259,17 +10749,27 @@
         <v>28</v>
       </c>
       <c r="D24" t="n">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="E24" t="n">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>29-03-2024</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>26-04-2024</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>32, 38</t>
         </is>
@@ -8290,17 +10790,27 @@
         <v>42</v>
       </c>
       <c r="D25" t="n">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="E25" t="n">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>26-04-2024</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>34, 38</t>
         </is>
@@ -8321,17 +10831,27 @@
         <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="E26" t="n">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>07-07-2024</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
           <t>13, 32</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>35</t>
         </is>
@@ -8352,17 +10872,27 @@
         <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="E27" t="n">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>07-07-2024</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>06-08-2024</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>36</t>
         </is>
@@ -8383,17 +10913,27 @@
         <v>45</v>
       </c>
       <c r="D28" t="n">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="E28" t="n">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>06-08-2024</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>20-09-2024</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
           <t>35</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>37</t>
         </is>
@@ -8414,17 +10954,27 @@
         <v>50</v>
       </c>
       <c r="D29" t="n">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="E29" t="n">
-        <v>651</v>
+        <v>671</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>20-09-2024</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>09-11-2024</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
           <t>36</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>38, 39</t>
         </is>
@@ -8445,17 +10995,27 @@
         <v>60</v>
       </c>
       <c r="D30" t="n">
-        <v>651</v>
+        <v>671</v>
       </c>
       <c r="E30" t="n">
-        <v>711</v>
+        <v>731</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>14, 37, 32, 31</t>
+          <t>09-11-2024</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
+        <is>
+          <t>08-01-2025</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>18, 37, 32, 31</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>39</t>
         </is>
@@ -8476,17 +11036,27 @@
         <v>70</v>
       </c>
       <c r="D31" t="n">
-        <v>711</v>
+        <v>731</v>
       </c>
       <c r="E31" t="n">
-        <v>781</v>
+        <v>801</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>38, 14, 37</t>
+          <t>08-01-2025</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
+        <is>
+          <t>19-03-2025</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>38, 18, 37</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>40, 42</t>
         </is>
@@ -8507,17 +11077,27 @@
         <v>50</v>
       </c>
       <c r="D32" t="n">
-        <v>781</v>
+        <v>801</v>
       </c>
       <c r="E32" t="n">
-        <v>831</v>
+        <v>851</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>39, 14</t>
+          <t>19-03-2025</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
+        <is>
+          <t>08-05-2025</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>39, 18</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>43, 42</t>
         </is>
@@ -8538,17 +11118,27 @@
         <v>15</v>
       </c>
       <c r="D33" t="n">
-        <v>831</v>
+        <v>851</v>
       </c>
       <c r="E33" t="n">
-        <v>846</v>
+        <v>866</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>08-05-2025</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>23-05-2025</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
           <t>39, 40</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>43</t>
         </is>
@@ -8569,17 +11159,27 @@
         <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>846</v>
+        <v>866</v>
       </c>
       <c r="E34" t="n">
-        <v>861</v>
+        <v>881</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>23-05-2025</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>07-06-2025</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
           <t>42, 40</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>44</t>
         </is>
@@ -8600,17 +11200,27 @@
         <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>861</v>
+        <v>881</v>
       </c>
       <c r="E35" t="n">
-        <v>871</v>
+        <v>891</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>07-06-2025</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>17-06-2025</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
           <t>43</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>45</t>
         </is>
@@ -8631,17 +11241,27 @@
         <v>10</v>
       </c>
       <c r="D36" t="n">
-        <v>871</v>
+        <v>891</v>
       </c>
       <c r="E36" t="n">
-        <v>881</v>
+        <v>901</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>18, 44</t>
+          <t>17-06-2025</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
+        <is>
+          <t>27-06-2025</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>17, 44</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>46</t>
         </is>
@@ -8662,17 +11282,27 @@
         <v>10</v>
       </c>
       <c r="D37" t="n">
-        <v>881</v>
+        <v>901</v>
       </c>
       <c r="E37" t="n">
-        <v>891</v>
+        <v>911</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>27-06-2025</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>07-07-2025</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
           <t>45, 6</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>48</t>
         </is>
@@ -8693,17 +11323,27 @@
         <v>20</v>
       </c>
       <c r="D38" t="n">
-        <v>891</v>
+        <v>911</v>
       </c>
       <c r="E38" t="n">
-        <v>911</v>
+        <v>931</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>07-07-2025</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>27-07-2025</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>49</t>
         </is>
@@ -8724,17 +11364,27 @@
         <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>911</v>
+        <v>931</v>
       </c>
       <c r="E39" t="n">
-        <v>941</v>
+        <v>961</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>27-07-2025</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>26-08-2025</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
           <t>48</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>50</t>
         </is>
@@ -8755,17 +11405,27 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>941</v>
+        <v>961</v>
       </c>
       <c r="E40" t="n">
-        <v>941</v>
+        <v>961</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>26-08-2025</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>26-08-2025</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
           <t>49</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/outputs/Portfolio_solutions.xlsx
+++ b/outputs/Portfolio_solutions.xlsx
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -584,14 +584,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>06-06-2024</t>
+          <t>24-05-2024</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -2979,14 +2979,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>06-06-2024</t>
+          <t>24-05-2024</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5308,14 +5308,14 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -5344,19 +5344,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>4, 5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -5365,7 +5365,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -5374,30 +5374,30 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>08-12-2025</t>
+          <t>14-11-2025</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>65</v>
       </c>
       <c r="G4" t="n">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>33</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -5426,19 +5426,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -5467,19 +5467,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>11, 12FC+5</t>
+          <t>7, 8FC+5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -5508,19 +5508,19 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>13</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -5549,19 +5549,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>9FC+5</t>
+          <t>6FC+5</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -5590,19 +5590,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>11, 12</t>
+          <t>7, 8</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>15, 16, 17, 19FC+20, 20FC+35, 21</t>
+          <t>10, 11, 12, 13FC+20, 14FC+35, 15</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -5631,19 +5631,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -5672,19 +5672,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -5713,19 +5713,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -5754,19 +5754,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>13FC+20</t>
+          <t>9FC+20</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>24, 25, 27, 28, 30, 31, 33, 34, 35, 36</t>
+          <t>17, 18, 19, 20, 21, 22, 23, 24, 25, 26</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -5795,19 +5795,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>13FC+35</t>
+          <t>9FC+35</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>38, 39, 40</t>
+          <t>27, 28, 29</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -5836,19 +5836,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>23, 24, 25, 27, 28, 30, 31, 33, 34, 35, 36, 38, 39, 40</t>
+          <t>16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -5877,19 +5877,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>15, 16, 17, 21</t>
+          <t>10, 11, 12, 15</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -5918,19 +5918,19 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>19, 21, 23</t>
+          <t>13, 15, 16</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -5959,19 +5959,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>19, 21, 24</t>
+          <t>13, 15, 17</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>27, 28</t>
+          <t>19, 20</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -6000,19 +6000,19 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>19, 21, 25</t>
+          <t>13, 15, 18</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -6041,19 +6041,19 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>19, 21, 25, 27</t>
+          <t>13, 15, 18, 19</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -6082,19 +6082,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>19, 21, 28</t>
+          <t>13, 15, 20</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -6123,19 +6123,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>19, 21, 30</t>
+          <t>13, 15, 21</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -6164,19 +6164,19 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>19, 21, 31</t>
+          <t>13, 15, 22</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>34, 38</t>
+          <t>24, 27</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -6205,19 +6205,19 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>19, 21, 33</t>
+          <t>13, 15, 23</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>35, 36, 38</t>
+          <t>25, 26, 27</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -6246,19 +6246,19 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>19, 21, 34</t>
+          <t>13, 15, 24</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -6287,19 +6287,19 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>19, 21, 34</t>
+          <t>13, 15, 24</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -6328,19 +6328,19 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>20, 21, 33, 34, 35, 36</t>
+          <t>14, 15, 23, 24, 25, 26</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>28</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -6369,19 +6369,19 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>20, 21, 38</t>
+          <t>14, 15, 27</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>29</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -6410,19 +6410,19 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>20, 21, 39</t>
+          <t>14, 15, 28</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>30</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6451,19 +6451,19 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>29</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>31</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6492,19 +6492,19 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6533,19 +6533,19 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>43, 6</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>33</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6574,19 +6574,19 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>32, 4</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6615,19 +6615,19 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>35</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>34</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -6730,7 +6730,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -6760,14 +6760,14 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -6796,19 +6796,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>4, 5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -6817,7 +6817,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -6826,30 +6826,30 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>08-12-2025</t>
+          <t>14-11-2025</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>65</v>
       </c>
       <c r="G4" t="n">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>33</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -6878,19 +6878,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -6919,19 +6919,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>11, 12FC+5</t>
+          <t>7, 8FC+5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -6960,19 +6960,19 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>13</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -7001,19 +7001,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>9FC+5</t>
+          <t>6FC+5</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -7042,19 +7042,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>11, 12</t>
+          <t>7, 8</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>15, 16, 17, 19FC+20, 20FC+35, 21</t>
+          <t>10, 11, 12, 13FC+20, 14FC+35, 15</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7083,19 +7083,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7124,19 +7124,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -7165,19 +7165,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -7206,19 +7206,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>13FC+20</t>
+          <t>9FC+20</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>24, 25, 27, 28, 30, 31, 33, 34, 35, 36</t>
+          <t>17, 18, 19, 20, 21, 22, 23, 24, 25, 26</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -7247,19 +7247,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>13FC+35</t>
+          <t>9FC+35</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>38, 39, 40</t>
+          <t>27, 28, 29</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -7288,19 +7288,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>23, 24, 25, 27, 28, 30, 31, 33, 34, 35, 36, 38, 39, 40</t>
+          <t>16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -7329,19 +7329,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>15, 16, 17, 21</t>
+          <t>10, 11, 12, 15</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -7370,19 +7370,19 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>19, 21, 23</t>
+          <t>13, 15, 16</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -7411,19 +7411,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>19, 21, 24</t>
+          <t>13, 15, 17</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>27, 28</t>
+          <t>19, 20</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -7452,19 +7452,19 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>19, 21, 25</t>
+          <t>13, 15, 18</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -7493,19 +7493,19 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>19, 21, 25, 27</t>
+          <t>13, 15, 18, 19</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -7534,19 +7534,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>19, 21, 28</t>
+          <t>13, 15, 20</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -7575,19 +7575,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>19, 21, 30</t>
+          <t>13, 15, 21</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -7616,19 +7616,19 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>19, 21, 31</t>
+          <t>13, 15, 22</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>34, 38</t>
+          <t>24, 27</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -7657,19 +7657,19 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>19, 21, 33</t>
+          <t>13, 15, 23</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>35, 36, 38</t>
+          <t>25, 26, 27</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -7698,19 +7698,19 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>19, 21, 34</t>
+          <t>13, 15, 24</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -7739,19 +7739,19 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>19, 21, 34</t>
+          <t>13, 15, 24</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -7780,19 +7780,19 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>20, 21, 33, 34, 35, 36</t>
+          <t>14, 15, 23, 24, 25, 26</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>28</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -7821,19 +7821,19 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>20, 21, 38</t>
+          <t>14, 15, 27</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>29</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -7862,19 +7862,19 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>20, 21, 39</t>
+          <t>14, 15, 28</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>30</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -7903,19 +7903,19 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>29</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>31</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -7944,19 +7944,19 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -7969,35 +7969,35 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>09-12-2025</t>
+          <t>01-12-2025</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>15-12-2025</t>
+          <t>05-12-2025</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="G32" t="n">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>43, 6</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>33</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -8010,35 +8010,35 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>16-12-2025</t>
+          <t>08-12-2025</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>18-12-2025</t>
+          <t>10-12-2025</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="G33" t="n">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>32, 4</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -8051,35 +8051,35 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>19-12-2025</t>
+          <t>11-12-2025</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>19-12-2025</t>
+          <t>11-12-2025</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="G34" t="n">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>35</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -8092,23 +8092,23 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>22-12-2025</t>
+          <t>12-12-2025</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>22-12-2025</t>
+          <t>12-12-2025</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G35" t="n">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>34</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -8182,7 +8182,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -8212,14 +8212,14 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -8248,19 +8248,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>4, 5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -8269,7 +8269,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -8278,30 +8278,30 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13-03-2026</t>
+          <t>26-02-2027</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>38</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -8330,19 +8330,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>9FC+5, 11</t>
+          <t>6FC+5, 8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -8371,19 +8371,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8FC+5</t>
+          <t>5FC+5</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -8412,19 +8412,19 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -8453,19 +8453,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>10, 8</t>
+          <t>7, 5</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>13, 18</t>
+          <t>9, 13</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -8494,19 +8494,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>20, 34, 29, 14</t>
+          <t>14, 26, 22, 10</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -8535,19 +8535,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>38, 39, 40, 16</t>
+          <t>30, 31, 32, 11</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -8576,19 +8576,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>20, 17</t>
+          <t>14, 12</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -8617,19 +8617,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -8658,19 +8658,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>36</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -8699,19 +8699,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>16, 17, 13</t>
+          <t>11, 12, 9</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -8740,19 +8740,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -8781,19 +8781,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -8822,19 +8822,19 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -8863,19 +8863,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -8904,19 +8904,19 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -8945,19 +8945,19 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -8986,19 +8986,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -9027,19 +9027,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>13, 27</t>
+          <t>9, 21</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -9068,19 +9068,19 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -9109,19 +9109,19 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>32, 38</t>
+          <t>25, 30</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -9150,19 +9150,19 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>34, 38</t>
+          <t>26, 30</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -9191,19 +9191,19 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>13, 32</t>
+          <t>9, 25</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -9232,19 +9232,19 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>26</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>28</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -9273,19 +9273,19 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>27</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>29</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -9314,19 +9314,19 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>38, 39</t>
+          <t>30, 31</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -9355,19 +9355,19 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>14, 37, 32, 31</t>
+          <t>10, 29, 25, 24</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>31</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -9396,19 +9396,19 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>38, 14, 37</t>
+          <t>30, 10, 29</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>40, 42</t>
+          <t>32, 33</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -9437,19 +9437,19 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>39, 14</t>
+          <t>31, 10</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>43, 42</t>
+          <t>34, 33</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -9478,19 +9478,19 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>39, 40</t>
+          <t>31, 32</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -9519,19 +9519,19 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>42, 40</t>
+          <t>33, 32</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>35</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -9560,19 +9560,19 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>34</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>36</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -9601,19 +9601,19 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>18, 44</t>
+          <t>13, 35</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>37</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -9642,19 +9642,19 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>45, 6</t>
+          <t>36</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>38</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -9683,19 +9683,19 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>37, 4</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>39</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -9724,19 +9724,19 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>38</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>39</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -9839,7 +9839,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -9869,14 +9869,14 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -9905,19 +9905,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>4, 5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -9926,7 +9926,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -9935,30 +9935,30 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13-03-2026</t>
+          <t>26-02-2027</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>38</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -9987,19 +9987,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>9FC+5, 11</t>
+          <t>6FC+5, 8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -10028,19 +10028,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8FC+5</t>
+          <t>5FC+5</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -10069,19 +10069,19 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -10110,19 +10110,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>10, 8</t>
+          <t>7, 5</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>13, 18</t>
+          <t>9, 13</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -10151,19 +10151,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>20, 34, 29, 14</t>
+          <t>14, 26, 22, 10</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -10192,19 +10192,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>38, 39, 40, 16</t>
+          <t>30, 31, 32, 11</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -10233,19 +10233,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>20, 17</t>
+          <t>14, 12</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -10274,19 +10274,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -10315,19 +10315,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>36</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -10356,19 +10356,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>16, 17, 13</t>
+          <t>11, 12, 9</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -10397,19 +10397,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -10438,19 +10438,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -10479,19 +10479,19 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -10520,19 +10520,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -10561,19 +10561,19 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -10602,19 +10602,19 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -10643,19 +10643,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -10684,19 +10684,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>13, 27</t>
+          <t>9, 21</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -10725,19 +10725,19 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -10766,19 +10766,19 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>32, 38</t>
+          <t>25, 30</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -10807,19 +10807,19 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>34, 38</t>
+          <t>26, 30</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -10848,19 +10848,19 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>13, 32</t>
+          <t>9, 25</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -10889,19 +10889,19 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>26</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>28</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -10930,19 +10930,19 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>27</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>29</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -10971,19 +10971,19 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>38, 39</t>
+          <t>30, 31</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -11012,19 +11012,19 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>14, 37, 32, 31</t>
+          <t>10, 29, 25, 24</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>31</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -11053,19 +11053,19 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>38, 14, 37</t>
+          <t>30, 10, 29</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>40, 42</t>
+          <t>32, 33</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -11094,19 +11094,19 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>39, 14</t>
+          <t>31, 10</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>43, 42</t>
+          <t>34, 33</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -11135,19 +11135,19 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>39, 40</t>
+          <t>31, 32</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -11176,19 +11176,19 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>42, 40</t>
+          <t>33, 32</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>35</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -11217,19 +11217,19 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>34</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>36</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -11258,19 +11258,19 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>18, 44</t>
+          <t>13, 35</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>37</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -11299,19 +11299,19 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>45, 6</t>
+          <t>36</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>38</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -11340,19 +11340,19 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>37, 4</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>39</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -11381,19 +11381,19 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>38</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -11422,7 +11422,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>39</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>

--- a/outputs/Portfolio_solutions.xlsx
+++ b/outputs/Portfolio_solutions.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1_Constrained" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1_notConstrained" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P2_Constrained" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P2_notConstrained" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P3_Constrained" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P2_Constrained" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P3_Constrained" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1_notConstrained" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P2_notConstrained" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P3_notConstrained" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
@@ -661,19 +661,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>06-11-2023</t>
+          <t>19-02-2024</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10-11-2023</t>
+          <t>23-02-2024</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="G6" t="n">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -702,19 +702,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13-11-2023</t>
+          <t>07-03-2024</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22-11-2023</t>
+          <t>18-03-2024</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="G7" t="n">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -743,19 +743,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23-11-2023</t>
+          <t>19-03-2024</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>04-12-2023</t>
+          <t>28-03-2024</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="G8" t="n">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -784,19 +784,19 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>05-12-2023</t>
+          <t>29-03-2024</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>14-12-2023</t>
+          <t>09-04-2024</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="G9" t="n">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -825,19 +825,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>15-12-2023</t>
+          <t>10-04-2024</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>25-01-2024</t>
+          <t>21-05-2024</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="G10" t="n">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -866,19 +866,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>15-12-2023</t>
+          <t>10-04-2024</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>18-01-2024</t>
+          <t>14-05-2024</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="G11" t="n">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -907,19 +907,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>19-01-2024</t>
+          <t>15-05-2024</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>31-01-2024</t>
+          <t>27-05-2024</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c r="G12" t="n">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -948,19 +948,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>15-12-2023</t>
+          <t>10-04-2024</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>04-01-2024</t>
+          <t>30-04-2024</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="G13" t="n">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -989,19 +989,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>26-01-2024</t>
+          <t>22-05-2024</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>05-02-2024</t>
+          <t>30-05-2024</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="G14" t="n">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1030,19 +1030,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>06-02-2024</t>
+          <t>31-05-2024</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>19-02-2024</t>
+          <t>13-06-2024</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="G15" t="n">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1071,19 +1071,19 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>20-02-2024</t>
+          <t>14-06-2024</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>26-02-2024</t>
+          <t>20-06-2024</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="G16" t="n">
-        <v>116</v>
+        <v>199</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1112,19 +1112,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-02-2024</t>
+          <t>21-06-2024</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>29-02-2024</t>
+          <t>25-06-2024</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>116</v>
+        <v>199</v>
       </c>
       <c r="G17" t="n">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1153,19 +1153,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>01-03-2024</t>
+          <t>26-06-2024</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>04-03-2024</t>
+          <t>27-06-2024</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="G18" t="n">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1194,19 +1194,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>05-03-2024</t>
+          <t>28-06-2024</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-03-2024</t>
+          <t>04-07-2024</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="G19" t="n">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1235,19 +1235,19 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>20-02-2024</t>
+          <t>14-06-2024</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>28-02-2024</t>
+          <t>24-06-2024</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="G20" t="n">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1276,19 +1276,19 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>29-02-2024</t>
+          <t>25-06-2024</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>08-03-2024</t>
+          <t>03-07-2024</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="G21" t="n">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1317,19 +1317,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>11-03-2024</t>
+          <t>04-07-2024</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-03-2024</t>
+          <t>05-07-2024</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="G22" t="n">
-        <v>127</v>
+        <v>210</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1358,19 +1358,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>13-03-2024</t>
+          <t>08-07-2024</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>13-03-2024</t>
+          <t>08-07-2024</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>127</v>
+        <v>210</v>
       </c>
       <c r="G23" t="n">
-        <v>128</v>
+        <v>211</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1399,19 +1399,19 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>14-03-2024</t>
+          <t>09-07-2024</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>14-03-2024</t>
+          <t>09-07-2024</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>128</v>
+        <v>211</v>
       </c>
       <c r="G24" t="n">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1440,19 +1440,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>15-03-2024</t>
+          <t>10-07-2024</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>26-03-2024</t>
+          <t>19-07-2024</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="G25" t="n">
-        <v>137</v>
+        <v>220</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1481,19 +1481,19 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>03-04-2024</t>
+          <t>29-07-2024</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>09-04-2024</t>
+          <t>02-08-2024</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>142</v>
+        <v>225</v>
       </c>
       <c r="G26" t="n">
-        <v>147</v>
+        <v>230</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1522,19 +1522,19 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>10-04-2024</t>
+          <t>05-08-2024</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>17-04-2024</t>
+          <t>12-08-2024</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>147</v>
+        <v>230</v>
       </c>
       <c r="G27" t="n">
-        <v>153</v>
+        <v>236</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1563,19 +1563,19 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18-04-2024</t>
+          <t>13-08-2024</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>19-04-2024</t>
+          <t>14-08-2024</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>153</v>
+        <v>236</v>
       </c>
       <c r="G28" t="n">
-        <v>155</v>
+        <v>238</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1604,19 +1604,19 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>26-01-2024</t>
+          <t>22-05-2024</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>02-02-2024</t>
+          <t>29-05-2024</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="G29" t="n">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1645,19 +1645,19 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>05-02-2024</t>
+          <t>30-05-2024</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>15-02-2024</t>
+          <t>11-06-2024</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c r="G30" t="n">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1686,19 +1686,19 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>16-02-2024</t>
+          <t>12-06-2024</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>22-02-2024</t>
+          <t>18-06-2024</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="G31" t="n">
-        <v>114</v>
+        <v>197</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1727,19 +1727,19 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>23-02-2024</t>
+          <t>19-06-2024</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>27-02-2024</t>
+          <t>21-06-2024</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>114</v>
+        <v>197</v>
       </c>
       <c r="G32" t="n">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1768,19 +1768,19 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>16-02-2024</t>
+          <t>12-06-2024</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>06-03-2024</t>
+          <t>01-07-2024</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="G33" t="n">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1809,19 +1809,19 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>28-02-2024</t>
+          <t>24-06-2024</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>08-03-2024</t>
+          <t>03-07-2024</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="G34" t="n">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1850,19 +1850,19 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>11-03-2024</t>
+          <t>04-07-2024</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>13-03-2024</t>
+          <t>08-07-2024</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="G35" t="n">
-        <v>128</v>
+        <v>211</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1891,19 +1891,19 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>11-03-2024</t>
+          <t>04-07-2024</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>13-03-2024</t>
+          <t>08-07-2024</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="G36" t="n">
-        <v>128</v>
+        <v>211</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1932,19 +1932,19 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>14-03-2024</t>
+          <t>09-07-2024</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>25-03-2024</t>
+          <t>18-07-2024</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>128</v>
+        <v>211</v>
       </c>
       <c r="G37" t="n">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1973,19 +1973,19 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>02-04-2024</t>
+          <t>26-07-2024</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>08-04-2024</t>
+          <t>01-08-2024</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>141</v>
+        <v>224</v>
       </c>
       <c r="G38" t="n">
-        <v>146</v>
+        <v>229</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2014,19 +2014,19 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>09-04-2024</t>
+          <t>02-08-2024</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-04-2024</t>
+          <t>06-08-2024</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>146</v>
+        <v>229</v>
       </c>
       <c r="G39" t="n">
-        <v>149</v>
+        <v>232</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2055,19 +2055,19 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>09-04-2024</t>
+          <t>02-08-2024</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>18-04-2024</t>
+          <t>13-08-2024</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>146</v>
+        <v>229</v>
       </c>
       <c r="G40" t="n">
-        <v>154</v>
+        <v>237</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2096,19 +2096,19 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>19-04-2024</t>
+          <t>14-08-2024</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>26-04-2024</t>
+          <t>21-08-2024</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>154</v>
+        <v>237</v>
       </c>
       <c r="G41" t="n">
-        <v>160</v>
+        <v>243</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2137,19 +2137,19 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>29-04-2024</t>
+          <t>22-08-2024</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>09-05-2024</t>
+          <t>03-09-2024</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>160</v>
+        <v>243</v>
       </c>
       <c r="G42" t="n">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2178,19 +2178,19 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>10-05-2024</t>
+          <t>04-09-2024</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>16-05-2024</t>
+          <t>10-09-2024</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="G43" t="n">
-        <v>174</v>
+        <v>257</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2219,19 +2219,19 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>17-05-2024</t>
+          <t>11-09-2024</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>21-05-2024</t>
+          <t>13-09-2024</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>174</v>
+        <v>257</v>
       </c>
       <c r="G44" t="n">
-        <v>177</v>
+        <v>260</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -2260,19 +2260,19 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>17-05-2024</t>
+          <t>11-09-2024</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>20-05-2024</t>
+          <t>12-09-2024</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>174</v>
+        <v>257</v>
       </c>
       <c r="G45" t="n">
-        <v>176</v>
+        <v>259</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2301,19 +2301,19 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>22-05-2024</t>
+          <t>16-09-2024</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>23-05-2024</t>
+          <t>17-09-2024</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>177</v>
+        <v>260</v>
       </c>
       <c r="G46" t="n">
-        <v>179</v>
+        <v>262</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2342,19 +2342,19 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>10-05-2024</t>
+          <t>04-09-2024</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>23-05-2024</t>
+          <t>17-09-2024</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="G47" t="n">
-        <v>179</v>
+        <v>262</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2383,19 +2383,19 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>24-05-2024</t>
+          <t>18-09-2024</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>04-06-2024</t>
+          <t>27-09-2024</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>179</v>
+        <v>262</v>
       </c>
       <c r="G48" t="n">
-        <v>187</v>
+        <v>270</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2424,19 +2424,19 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>12-06-2024</t>
+          <t>07-10-2024</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>18-06-2024</t>
+          <t>11-10-2024</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>192</v>
+        <v>275</v>
       </c>
       <c r="G49" t="n">
-        <v>197</v>
+        <v>280</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2465,19 +2465,19 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>19-06-2024</t>
+          <t>14-10-2024</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>21-06-2024</t>
+          <t>16-10-2024</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>197</v>
+        <v>280</v>
       </c>
       <c r="G50" t="n">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2506,19 +2506,19 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>19-06-2024</t>
+          <t>14-10-2024</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>21-06-2024</t>
+          <t>16-10-2024</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>197</v>
+        <v>280</v>
       </c>
       <c r="G51" t="n">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2547,19 +2547,19 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>21-06-2024</t>
+          <t>16-10-2024</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>21-06-2024</t>
+          <t>16-10-2024</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>199</v>
+        <v>282</v>
       </c>
       <c r="G52" t="n">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2588,19 +2588,19 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>24-06-2024</t>
+          <t>21-05-2026</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>26-06-2024</t>
+          <t>25-05-2026</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>200</v>
+        <v>698</v>
       </c>
       <c r="G53" t="n">
-        <v>203</v>
+        <v>701</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2629,19 +2629,19 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>27-06-2024</t>
+          <t>26-05-2026</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>27-06-2024</t>
+          <t>26-05-2026</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>203</v>
+        <v>701</v>
       </c>
       <c r="G54" t="n">
-        <v>204</v>
+        <v>702</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2670,19 +2670,19 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>28-06-2024</t>
+          <t>27-05-2026</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>28-06-2024</t>
+          <t>27-05-2026</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>204</v>
+        <v>702</v>
       </c>
       <c r="G55" t="n">
-        <v>205</v>
+        <v>703</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2711,19 +2711,19 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>01-07-2024</t>
+          <t>28-05-2026</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>03-07-2024</t>
+          <t>01-06-2026</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>205</v>
+        <v>703</v>
       </c>
       <c r="G56" t="n">
-        <v>208</v>
+        <v>706</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2752,19 +2752,19 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>04-07-2024</t>
+          <t>02-06-2026</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>04-07-2024</t>
+          <t>02-06-2026</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>208</v>
+        <v>706</v>
       </c>
       <c r="G57" t="n">
-        <v>209</v>
+        <v>707</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2793,19 +2793,19 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>05-07-2024</t>
+          <t>03-06-2026</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>05-07-2024</t>
+          <t>03-06-2026</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>209</v>
+        <v>707</v>
       </c>
       <c r="G58" t="n">
-        <v>209</v>
+        <v>707</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2820,6 +2820,3115 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Task Label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Task Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Finish Date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Finish Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Predecessors</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Successors</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Contract signing</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25-09-2023</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>25-09-2023</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Project planning</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25-09-2023</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>15-12-2023</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>65</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>4, 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Project execution and controlling</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>500</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18-12-2023</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>14-11-2025</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>65</v>
+      </c>
+      <c r="G4" t="n">
+        <v>565</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Documentation analysis</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18-12-2023</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26-01-2024</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>65</v>
+      </c>
+      <c r="G5" t="n">
+        <v>95</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Consultation results report</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29-01-2024</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>95</v>
+      </c>
+      <c r="G6" t="n">
+        <v>125</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>7, 8FC+5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Architectural design</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11-03-2024</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>05-04-2024</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>125</v>
+      </c>
+      <c r="G7" t="n">
+        <v>145</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Lanscape design</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26-04-2024</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>145</v>
+      </c>
+      <c r="G8" t="n">
+        <v>160</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>6FC+5</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Final design</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>09-05-2024</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>05-06-2024</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>168</v>
+      </c>
+      <c r="G9" t="n">
+        <v>188</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>7, 8</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>10, 11, 12, 13FC+20, 14FC+35, 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Legal permits</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>06-06-2024</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>17-07-2024</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>188</v>
+      </c>
+      <c r="G10" t="n">
+        <v>218</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Environmental permits</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18-07-2024</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28-08-2024</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>218</v>
+      </c>
+      <c r="G11" t="n">
+        <v>248</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Construction license</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29-08-2024</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>09-10-2024</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>248</v>
+      </c>
+      <c r="G12" t="n">
+        <v>278</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Providers contracts</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>45</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>04-07-2024</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>04-09-2024</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>208</v>
+      </c>
+      <c r="G13" t="n">
+        <v>253</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9FC+20</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>17, 18, 19, 20, 21, 22, 23, 24, 25, 26</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Components contracts</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>05-09-2024</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>16-10-2024</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>253</v>
+      </c>
+      <c r="G14" t="n">
+        <v>283</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>9FC+35</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>27, 28, 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Procurement documents</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>70</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17-10-2024</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22-01-2025</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>283</v>
+      </c>
+      <c r="G15" t="n">
+        <v>353</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Site preparation</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>25</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>23-01-2025</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>26-02-2025</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>353</v>
+      </c>
+      <c r="G16" t="n">
+        <v>378</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>10, 11, 12, 15</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Sanitary Water system</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>18</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>27-02-2025</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24-03-2025</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>378</v>
+      </c>
+      <c r="G17" t="n">
+        <v>396</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>13, 15, 16</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Electrical system</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>43</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>25-03-2025</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>22-05-2025</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>396</v>
+      </c>
+      <c r="G18" t="n">
+        <v>439</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>13, 15, 17</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>19, 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Soccer field</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>36</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>23-05-2025</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>11-07-2025</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>439</v>
+      </c>
+      <c r="G19" t="n">
+        <v>475</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>13, 15, 18</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Changing rooms &amp; toilettes</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>39</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14-07-2025</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>04-09-2025</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>475</v>
+      </c>
+      <c r="G20" t="n">
+        <v>514</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>13, 15, 18, 19</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Gym</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>15</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>05-09-2025</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>25-09-2025</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>514</v>
+      </c>
+      <c r="G21" t="n">
+        <v>529</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>13, 15, 20</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Leisure area</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>7</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>26-09-2025</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>06-10-2025</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>529</v>
+      </c>
+      <c r="G22" t="n">
+        <v>536</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>13, 15, 21</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Garden</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>07-10-2025</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20-10-2025</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>536</v>
+      </c>
+      <c r="G23" t="n">
+        <v>546</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>13, 15, 22</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>24, 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Roads</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>10</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21-10-2025</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>03-11-2025</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>546</v>
+      </c>
+      <c r="G24" t="n">
+        <v>556</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>13, 15, 23</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>25, 26, 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Decorative elements</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>5</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>04-11-2025</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>556</v>
+      </c>
+      <c r="G25" t="n">
+        <v>561</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>13, 15, 24</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Lagoon</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>60</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>04-11-2025</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>26-01-2026</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>556</v>
+      </c>
+      <c r="G26" t="n">
+        <v>616</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>13, 15, 24</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Urban metallic components installment</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>22</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>27-01-2026</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25-02-2026</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>616</v>
+      </c>
+      <c r="G27" t="n">
+        <v>638</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>14, 15, 23, 24, 25, 26</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Soccer field and leisure zone components installment</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>26-02-2026</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>18-03-2026</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>638</v>
+      </c>
+      <c r="G28" t="n">
+        <v>653</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>14, 15, 27</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Installation of water dispensers</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>19-03-2026</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>08-04-2026</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>653</v>
+      </c>
+      <c r="G29" t="n">
+        <v>668</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>14, 15, 28</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Equipment functionality test</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>09-04-2026</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>29-04-2026</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>668</v>
+      </c>
+      <c r="G30" t="n">
+        <v>683</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Final test supporting document</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>10</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>30-04-2026</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>13-05-2026</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>683</v>
+      </c>
+      <c r="G31" t="n">
+        <v>693</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Operations manual</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>5</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14-05-2026</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20-05-2026</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>693</v>
+      </c>
+      <c r="G32" t="n">
+        <v>698</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Contracts closure</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>21-05-2026</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>25-05-2026</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>698</v>
+      </c>
+      <c r="G33" t="n">
+        <v>701</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>32, 4</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Project closing report</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>26-05-2026</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>26-05-2026</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>701</v>
+      </c>
+      <c r="G34" t="n">
+        <v>702</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      ACCEPTANCE Project 1</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>27-05-2026</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>27-05-2026</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>702</v>
+      </c>
+      <c r="G35" t="n">
+        <v>702</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Task Label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Task Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Finish Date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Finish Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Predecessors</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Successors</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Contract signing</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>02-10-2023</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>02-10-2023</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Project planning</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>02-10-2023</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24-11-2023</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>4, 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Project execution and controlling</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>850</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27-11-2023</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26-02-2027</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>50</v>
+      </c>
+      <c r="G4" t="n">
+        <v>900</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Area survey</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29-01-2024</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>16-02-2024</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>95</v>
+      </c>
+      <c r="G5" t="n">
+        <v>110</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>6FC+5, 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Topographic study</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26-02-2024</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>06-03-2024</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>115</v>
+      </c>
+      <c r="G6" t="n">
+        <v>123</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5FC+5</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conceptual design</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29-04-2024</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>160</v>
+      </c>
+      <c r="G7" t="n">
+        <v>168</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Architectural design</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>06-06-2024</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26-06-2024</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>188</v>
+      </c>
+      <c r="G8" t="n">
+        <v>203</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>7, 5</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>9, 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bidding</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>32</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23-01-2025</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>07-03-2025</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>353</v>
+      </c>
+      <c r="G9" t="n">
+        <v>385</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>14, 26, 22, 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Equipment contracts</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>14</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10-03-2025</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>27-03-2025</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>385</v>
+      </c>
+      <c r="G10" t="n">
+        <v>399</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>30, 31, 32, 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Legal permits</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>15</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28-03-2025</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>17-04-2025</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>399</v>
+      </c>
+      <c r="G11" t="n">
+        <v>414</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>14, 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Construction license</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18-04-2025</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>08-05-2025</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>414</v>
+      </c>
+      <c r="G12" t="n">
+        <v>429</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Operations licenses</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>15</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10-10-2024</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>30-10-2024</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>278</v>
+      </c>
+      <c r="G13" t="n">
+        <v>293</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Existing structure demolition</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>09-05-2025</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22-05-2025</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>429</v>
+      </c>
+      <c r="G14" t="n">
+        <v>439</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>11, 12, 9</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Debris removal</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>10</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23-05-2025</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>05-06-2025</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>439</v>
+      </c>
+      <c r="G15" t="n">
+        <v>449</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Earthmoving works</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>06-06-2025</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>26-06-2025</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>449</v>
+      </c>
+      <c r="G16" t="n">
+        <v>464</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Foundations</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>27-06-2025</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>17-07-2025</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>464</v>
+      </c>
+      <c r="G17" t="n">
+        <v>479</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Reinforced concrete structure</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>15</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18-07-2025</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>07-08-2025</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>479</v>
+      </c>
+      <c r="G18" t="n">
+        <v>494</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Vertical walls</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>60</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>08-08-2025</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>30-10-2025</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>494</v>
+      </c>
+      <c r="G19" t="n">
+        <v>554</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Thermo-acoustic insulation</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>31-10-2025</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>11-12-2025</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>554</v>
+      </c>
+      <c r="G20" t="n">
+        <v>584</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Walls plaster</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12-12-2025</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>08-01-2026</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>584</v>
+      </c>
+      <c r="G21" t="n">
+        <v>604</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Sanitary water system</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>42</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>09-01-2026</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>09-03-2026</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>604</v>
+      </c>
+      <c r="G22" t="n">
+        <v>646</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>9, 21</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Pipeline system</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>42</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10-03-2026</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>06-05-2026</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>646</v>
+      </c>
+      <c r="G23" t="n">
+        <v>688</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Electrical system</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>28</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>07-05-2026</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>15-06-2026</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>688</v>
+      </c>
+      <c r="G24" t="n">
+        <v>716</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>25, 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Mechanical system</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>42</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16-06-2026</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>12-08-2026</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>716</v>
+      </c>
+      <c r="G25" t="n">
+        <v>758</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>26, 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Floor covering</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>30</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13-08-2026</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>23-09-2026</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>758</v>
+      </c>
+      <c r="G26" t="n">
+        <v>788</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>9, 25</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Windows and doors placement</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>30</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>24-09-2026</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>04-11-2026</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>788</v>
+      </c>
+      <c r="G27" t="n">
+        <v>818</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Wall patching</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>45</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>05-11-2026</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>06-01-2027</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>818</v>
+      </c>
+      <c r="G28" t="n">
+        <v>863</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Painting walls</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>50</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>07-01-2027</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>17-03-2027</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>863</v>
+      </c>
+      <c r="G29" t="n">
+        <v>913</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>30, 31</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Electrical appliances installment</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>60</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18-03-2027</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>09-06-2027</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>913</v>
+      </c>
+      <c r="G30" t="n">
+        <v>973</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>10, 29, 25, 24</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Sanitary facilities installment</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>70</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10-06-2027</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>15-09-2027</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>973</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1043</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>30, 10, 29</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>32, 33</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Furnitures</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>50</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>16-09-2027</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>24-11-2027</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1043</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1093</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>31, 10</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>34, 33</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Equipment functionality test</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>25-11-2027</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>15-12-2027</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1093</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1108</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>31, 32</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Equipment installment acceptance</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>16-12-2027</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>05-01-2028</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1108</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1123</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>33, 32</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Building site final cleaning</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>10</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>06-01-2028</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>19-01-2028</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1123</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1133</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Final test supporting document</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>10</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>20-01-2028</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>02-02-2028</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1133</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1143</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>13, 35</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Operations manual</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>10</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>03-02-2028</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>16-02-2028</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1143</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1153</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Contracts closure</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>20</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>17-02-2028</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>15-03-2028</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1153</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1173</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>37, 4</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Project closing report</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>30</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>16-03-2028</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>26-04-2028</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1173</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1203</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ACCEPTANCE Project 1</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>27-04-2028</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>27-04-2028</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1203</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1203</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5214,7 +8323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5656,19 +8765,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>17-06-2024</t>
+          <t>06-05-2024</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26-07-2024</t>
+          <t>14-06-2024</t>
         </is>
       </c>
       <c r="F11" t="n">
+        <v>165</v>
+      </c>
+      <c r="G11" t="n">
         <v>195</v>
-      </c>
-      <c r="G11" t="n">
-        <v>225</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -5697,19 +8806,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-07-2024</t>
+          <t>06-05-2024</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>06-09-2024</t>
+          <t>14-06-2024</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="G12" t="n">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -5779,19 +8888,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>05-08-2024</t>
+          <t>24-06-2024</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>13-09-2024</t>
+          <t>02-08-2024</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>200</v>
+      </c>
+      <c r="G14" t="n">
         <v>230</v>
-      </c>
-      <c r="G14" t="n">
-        <v>260</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -5820,19 +8929,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>16-09-2024</t>
+          <t>06-05-2024</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>20-12-2024</t>
+          <t>09-08-2024</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>260</v>
+        <v>165</v>
       </c>
       <c r="G15" t="n">
-        <v>330</v>
+        <v>235</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -5861,19 +8970,19 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>23-12-2024</t>
+          <t>12-08-2024</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>24-01-2025</t>
+          <t>13-09-2024</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>330</v>
+        <v>235</v>
       </c>
       <c r="G16" t="n">
-        <v>355</v>
+        <v>260</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -5902,19 +9011,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-01-2025</t>
+          <t>16-09-2024</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>19-02-2025</t>
+          <t>09-10-2024</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>355</v>
+        <v>260</v>
       </c>
       <c r="G17" t="n">
-        <v>373</v>
+        <v>278</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -5943,19 +9052,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>20-02-2025</t>
+          <t>10-10-2024</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>21-04-2025</t>
+          <t>09-12-2024</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>373</v>
+        <v>278</v>
       </c>
       <c r="G18" t="n">
-        <v>416</v>
+        <v>321</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -5984,19 +9093,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>22-04-2025</t>
+          <t>10-12-2024</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-06-2025</t>
+          <t>28-01-2025</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>416</v>
+        <v>321</v>
       </c>
       <c r="G19" t="n">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -6025,19 +9134,19 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11-06-2025</t>
+          <t>29-01-2025</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>04-08-2025</t>
+          <t>24-03-2025</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G20" t="n">
-        <v>491</v>
+        <v>396</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -6066,19 +9175,19 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>05-08-2025</t>
+          <t>25-03-2025</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>25-08-2025</t>
+          <t>14-04-2025</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>491</v>
+        <v>396</v>
       </c>
       <c r="G21" t="n">
-        <v>506</v>
+        <v>411</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -6107,19 +9216,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>26-08-2025</t>
+          <t>15-04-2025</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>03-09-2025</t>
+          <t>23-04-2025</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>506</v>
+        <v>411</v>
       </c>
       <c r="G22" t="n">
-        <v>513</v>
+        <v>418</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -6148,19 +9257,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>04-09-2025</t>
+          <t>24-04-2025</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>17-09-2025</t>
+          <t>07-05-2025</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>513</v>
+        <v>418</v>
       </c>
       <c r="G23" t="n">
-        <v>523</v>
+        <v>428</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -6189,19 +9298,19 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>18-09-2025</t>
+          <t>08-05-2025</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>01-10-2025</t>
+          <t>21-05-2025</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>523</v>
+        <v>428</v>
       </c>
       <c r="G24" t="n">
-        <v>533</v>
+        <v>438</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -6230,19 +9339,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>02-10-2025</t>
+          <t>22-05-2025</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>08-10-2025</t>
+          <t>28-05-2025</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>533</v>
+        <v>438</v>
       </c>
       <c r="G25" t="n">
-        <v>538</v>
+        <v>443</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -6271,19 +9380,19 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>02-10-2025</t>
+          <t>22-05-2025</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>24-12-2025</t>
+          <t>13-08-2025</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>533</v>
+        <v>438</v>
       </c>
       <c r="G26" t="n">
-        <v>593</v>
+        <v>498</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -6312,19 +9421,19 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>25-12-2025</t>
+          <t>14-08-2025</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>23-01-2026</t>
+          <t>12-09-2025</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>593</v>
+        <v>498</v>
       </c>
       <c r="G27" t="n">
-        <v>615</v>
+        <v>520</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -6353,19 +9462,19 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>26-01-2026</t>
+          <t>15-09-2025</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>13-02-2026</t>
+          <t>03-10-2025</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>615</v>
+        <v>520</v>
       </c>
       <c r="G28" t="n">
-        <v>630</v>
+        <v>535</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -6394,19 +9503,19 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>16-02-2026</t>
+          <t>06-10-2025</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>06-03-2026</t>
+          <t>24-10-2025</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>630</v>
+        <v>535</v>
       </c>
       <c r="G29" t="n">
-        <v>645</v>
+        <v>550</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -6435,19 +9544,19 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>09-03-2026</t>
+          <t>27-10-2025</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>27-03-2026</t>
+          <t>14-11-2025</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>645</v>
+        <v>550</v>
       </c>
       <c r="G30" t="n">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -6476,19 +9585,19 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>30-03-2026</t>
+          <t>17-11-2025</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-04-2026</t>
+          <t>28-11-2025</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="G31" t="n">
-        <v>670</v>
+        <v>575</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -6517,19 +9626,19 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>13-04-2026</t>
+          <t>01-12-2025</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>17-04-2026</t>
+          <t>05-12-2025</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>670</v>
+        <v>575</v>
       </c>
       <c r="G32" t="n">
-        <v>675</v>
+        <v>580</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -6558,19 +9667,19 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>20-04-2026</t>
+          <t>08-12-2025</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>22-04-2026</t>
+          <t>10-12-2025</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>675</v>
+        <v>580</v>
       </c>
       <c r="G33" t="n">
-        <v>678</v>
+        <v>583</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -6599,19 +9708,19 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>23-04-2026</t>
+          <t>11-12-2025</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>23-04-2026</t>
+          <t>11-12-2025</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>678</v>
+        <v>583</v>
       </c>
       <c r="G34" t="n">
-        <v>679</v>
+        <v>584</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -6640,1458 +9749,6 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>24-04-2026</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>24-04-2026</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>679</v>
-      </c>
-      <c r="G35" t="n">
-        <v>679</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Task Label</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Task Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Duration</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Start Date</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Finish Date</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Start Time</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Finish Time</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Predecessors</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Successors</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Contract signing</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>25-09-2023</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>25-09-2023</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Project planning</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>60</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>25-09-2023</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>15-12-2023</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G3" t="n">
-        <v>65</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>4, 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Project execution and controlling</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>500</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18-12-2023</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>14-11-2025</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>65</v>
-      </c>
-      <c r="G4" t="n">
-        <v>565</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Documentation analysis</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>30</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>18-12-2023</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>26-01-2024</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>65</v>
-      </c>
-      <c r="G5" t="n">
-        <v>95</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Consultation results report</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>30</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>29-01-2024</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>08-03-2024</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>95</v>
-      </c>
-      <c r="G6" t="n">
-        <v>125</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>7, 8FC+5</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Architectural design</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>20</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11-03-2024</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>05-04-2024</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>125</v>
-      </c>
-      <c r="G7" t="n">
-        <v>145</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Lanscape design</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>15</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>18-03-2024</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>05-04-2024</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>130</v>
-      </c>
-      <c r="G8" t="n">
-        <v>145</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>6FC+5</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Final design</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>20</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>08-04-2024</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>03-05-2024</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>145</v>
-      </c>
-      <c r="G9" t="n">
-        <v>165</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>7, 8</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>10, 11, 12, 13FC+20, 14FC+35, 15</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Legal permits</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>06-05-2024</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>14-06-2024</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>165</v>
-      </c>
-      <c r="G10" t="n">
-        <v>195</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Environmental permits</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>06-05-2024</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>14-06-2024</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>165</v>
-      </c>
-      <c r="G11" t="n">
-        <v>195</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Construction license</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>06-05-2024</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>14-06-2024</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>165</v>
-      </c>
-      <c r="G12" t="n">
-        <v>195</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Providers contracts</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>45</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>03-06-2024</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>02-08-2024</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>185</v>
-      </c>
-      <c r="G13" t="n">
-        <v>230</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>9FC+20</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>17, 18, 19, 20, 21, 22, 23, 24, 25, 26</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Components contracts</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>24-06-2024</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>02-08-2024</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>200</v>
-      </c>
-      <c r="G14" t="n">
-        <v>230</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>9FC+35</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>27, 28, 29</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Procurement documents</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>70</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>06-05-2024</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>09-08-2024</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>165</v>
-      </c>
-      <c r="G15" t="n">
-        <v>235</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Site preparation</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>25</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>12-08-2024</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>13-09-2024</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>235</v>
-      </c>
-      <c r="G16" t="n">
-        <v>260</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>10, 11, 12, 15</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Sanitary Water system</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>18</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>16-09-2024</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>09-10-2024</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>260</v>
-      </c>
-      <c r="G17" t="n">
-        <v>278</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>13, 15, 16</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Electrical system</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>43</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>10-10-2024</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>09-12-2024</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>278</v>
-      </c>
-      <c r="G18" t="n">
-        <v>321</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>13, 15, 17</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>19, 20</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Soccer field</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>36</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>10-12-2024</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>28-01-2025</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>321</v>
-      </c>
-      <c r="G19" t="n">
-        <v>357</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>13, 15, 18</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Changing rooms &amp; toilettes</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>39</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>29-01-2025</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>24-03-2025</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>357</v>
-      </c>
-      <c r="G20" t="n">
-        <v>396</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>13, 15, 18, 19</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Gym</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>15</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>25-03-2025</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>14-04-2025</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>396</v>
-      </c>
-      <c r="G21" t="n">
-        <v>411</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>13, 15, 20</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Leisure area</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>7</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>15-04-2025</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>23-04-2025</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>411</v>
-      </c>
-      <c r="G22" t="n">
-        <v>418</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>13, 15, 21</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Garden</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>10</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>24-04-2025</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>07-05-2025</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>418</v>
-      </c>
-      <c r="G23" t="n">
-        <v>428</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>13, 15, 22</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>24, 27</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Roads</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>10</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>08-05-2025</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>21-05-2025</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>428</v>
-      </c>
-      <c r="G24" t="n">
-        <v>438</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>13, 15, 23</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>25, 26, 27</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Decorative elements</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>5</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>22-05-2025</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>28-05-2025</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>438</v>
-      </c>
-      <c r="G25" t="n">
-        <v>443</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>13, 15, 24</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Lagoon</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>60</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>22-05-2025</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>13-08-2025</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>438</v>
-      </c>
-      <c r="G26" t="n">
-        <v>498</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>13, 15, 24</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Urban metallic components installment</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>22</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>14-08-2025</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>12-09-2025</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>498</v>
-      </c>
-      <c r="G27" t="n">
-        <v>520</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>14, 15, 23, 24, 25, 26</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Soccer field and leisure zone components installment</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>15</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>15-09-2025</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>03-10-2025</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>520</v>
-      </c>
-      <c r="G28" t="n">
-        <v>535</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>14, 15, 27</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Installation of water dispensers</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>15</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>06-10-2025</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>24-10-2025</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>535</v>
-      </c>
-      <c r="G29" t="n">
-        <v>550</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>14, 15, 28</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Equipment functionality test</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>15</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>27-10-2025</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>14-11-2025</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>550</v>
-      </c>
-      <c r="G30" t="n">
-        <v>565</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Final test supporting document</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>10</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>17-11-2025</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>28-11-2025</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>565</v>
-      </c>
-      <c r="G31" t="n">
-        <v>575</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Operations manual</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>5</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>01-12-2025</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>05-12-2025</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>575</v>
-      </c>
-      <c r="G32" t="n">
-        <v>580</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Contracts closure</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>3</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>08-12-2025</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>10-12-2025</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>580</v>
-      </c>
-      <c r="G33" t="n">
-        <v>583</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>32, 4</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Project closing report</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>11-12-2025</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>11-12-2025</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>583</v>
-      </c>
-      <c r="G34" t="n">
-        <v>584</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      ACCEPTANCE Project 1</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
           <t>12-12-2025</t>
         </is>
       </c>
@@ -8112,1663 +9769,6 @@
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Task Label</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Task Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Duration</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Start Date</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Finish Date</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Start Time</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Finish Time</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Predecessors</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Successors</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Contract signing</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>02-10-2023</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>02-10-2023</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
-      </c>
-      <c r="G2" t="n">
-        <v>10</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Project planning</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>40</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>02-10-2023</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>24-11-2023</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="n">
-        <v>50</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>4, 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Project execution and controlling</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>850</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>27-11-2023</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>26-02-2027</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>50</v>
-      </c>
-      <c r="G4" t="n">
-        <v>900</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Area survey</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>27-11-2023</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>15-12-2023</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>50</v>
-      </c>
-      <c r="G5" t="n">
-        <v>65</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>6FC+5, 8</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Topographic study</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>25-12-2023</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>03-01-2024</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>70</v>
-      </c>
-      <c r="G6" t="n">
-        <v>78</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>5FC+5</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Conceptual design</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>04-01-2024</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>15-01-2024</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>78</v>
-      </c>
-      <c r="G7" t="n">
-        <v>86</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Architectural design</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>15</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>16-01-2024</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>05-02-2024</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>86</v>
-      </c>
-      <c r="G8" t="n">
-        <v>101</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>7, 5</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>9, 13</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Bidding</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>32</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>06-02-2024</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>20-03-2024</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>101</v>
-      </c>
-      <c r="G9" t="n">
-        <v>133</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>14, 26, 22, 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Equipment contracts</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>14</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>21-03-2024</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>09-04-2024</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>133</v>
-      </c>
-      <c r="G10" t="n">
-        <v>147</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>30, 31, 32, 11</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Legal permits</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>15</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>10-04-2024</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>30-04-2024</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>147</v>
-      </c>
-      <c r="G11" t="n">
-        <v>162</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>14, 12</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Construction license</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>15</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>01-05-2024</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>21-05-2024</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>162</v>
-      </c>
-      <c r="G12" t="n">
-        <v>177</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Operations licenses</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>15</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>06-02-2024</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>26-02-2024</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>101</v>
-      </c>
-      <c r="G13" t="n">
-        <v>116</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Existing structure demolition</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>10</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>22-05-2024</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>04-06-2024</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>177</v>
-      </c>
-      <c r="G14" t="n">
-        <v>187</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>11, 12, 9</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Debris removal</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>10</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>05-06-2024</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>18-06-2024</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>187</v>
-      </c>
-      <c r="G15" t="n">
-        <v>197</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Earthmoving works</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>15</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>19-06-2024</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>09-07-2024</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>197</v>
-      </c>
-      <c r="G16" t="n">
-        <v>212</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Foundations</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>15</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>10-07-2024</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>30-07-2024</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>212</v>
-      </c>
-      <c r="G17" t="n">
-        <v>227</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Reinforced concrete structure</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>15</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>31-07-2024</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>20-08-2024</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>227</v>
-      </c>
-      <c r="G18" t="n">
-        <v>242</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Vertical walls</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>60</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>21-08-2024</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>12-11-2024</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>242</v>
-      </c>
-      <c r="G19" t="n">
-        <v>302</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Thermo-acoustic insulation</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>30</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>13-11-2024</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>24-12-2024</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>302</v>
-      </c>
-      <c r="G20" t="n">
-        <v>332</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Walls plaster</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>20</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>25-12-2024</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>21-01-2025</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>332</v>
-      </c>
-      <c r="G21" t="n">
-        <v>352</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Sanitary water system</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>42</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>22-01-2025</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>20-03-2025</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>352</v>
-      </c>
-      <c r="G22" t="n">
-        <v>394</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>9, 21</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Pipeline system</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>42</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>21-03-2025</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>19-05-2025</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>394</v>
-      </c>
-      <c r="G23" t="n">
-        <v>436</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Electrical system</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>28</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>20-05-2025</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>26-06-2025</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>436</v>
-      </c>
-      <c r="G24" t="n">
-        <v>464</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>25, 30</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Mechanical system</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>42</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>27-06-2025</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>25-08-2025</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>464</v>
-      </c>
-      <c r="G25" t="n">
-        <v>506</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>26, 30</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Floor covering</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>30</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>26-08-2025</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>06-10-2025</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>506</v>
-      </c>
-      <c r="G26" t="n">
-        <v>536</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>9, 25</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Windows and doors placement</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>30</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>07-10-2025</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>17-11-2025</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>536</v>
-      </c>
-      <c r="G27" t="n">
-        <v>566</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Wall patching</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>45</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>18-11-2025</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>19-01-2026</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>566</v>
-      </c>
-      <c r="G28" t="n">
-        <v>611</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Painting walls</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>50</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>20-01-2026</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>30-03-2026</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>611</v>
-      </c>
-      <c r="G29" t="n">
-        <v>661</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>30, 31</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Electrical appliances installment</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>60</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>31-03-2026</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>22-06-2026</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>661</v>
-      </c>
-      <c r="G30" t="n">
-        <v>721</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>10, 29, 25, 24</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Sanitary facilities installment</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>70</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>23-06-2026</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>28-09-2026</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>721</v>
-      </c>
-      <c r="G31" t="n">
-        <v>791</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>30, 10, 29</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>32, 33</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Furnitures</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>50</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>29-09-2026</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>07-12-2026</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>791</v>
-      </c>
-      <c r="G32" t="n">
-        <v>841</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>31, 10</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>34, 33</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Equipment functionality test</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>15</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>08-12-2026</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>28-12-2026</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>841</v>
-      </c>
-      <c r="G33" t="n">
-        <v>856</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>31, 32</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Equipment installment acceptance</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>15</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>29-12-2026</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>18-01-2027</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>856</v>
-      </c>
-      <c r="G34" t="n">
-        <v>871</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>33, 32</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Building site final cleaning</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>10</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>19-01-2027</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>01-02-2027</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>871</v>
-      </c>
-      <c r="G35" t="n">
-        <v>881</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Final test supporting document</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>10</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>02-02-2027</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>15-02-2027</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>881</v>
-      </c>
-      <c r="G36" t="n">
-        <v>891</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>13, 35</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Operations manual</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>10</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>16-02-2027</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>01-03-2027</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>891</v>
-      </c>
-      <c r="G37" t="n">
-        <v>901</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Contracts closure</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>20</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>02-03-2027</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>29-03-2027</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>901</v>
-      </c>
-      <c r="G38" t="n">
-        <v>921</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>37, 4</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Project closing report</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>30</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>30-03-2027</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>10-05-2027</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>921</v>
-      </c>
-      <c r="G39" t="n">
-        <v>951</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>ACCEPTANCE Project 1</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>11-05-2027</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>11-05-2027</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>951</v>
-      </c>
-      <c r="G40" t="n">
-        <v>951</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/outputs/Portfolio_solutions.xlsx
+++ b/outputs/Portfolio_solutions.xlsx
@@ -559,7 +559,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>4, 5</t>
+          <t>4; 5</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>7, 8, 9</t>
+          <t>7; 8; 9</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>10, 11, 12, 13, 14</t>
+          <t>10; 11; 12; 13; 14</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>10, 11, 12, 13, 29</t>
+          <t>10; 11; 12; 13; 29</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>10, 11, 12, 13</t>
+          <t>10; 11; 12; 13</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>7, 8, 9</t>
+          <t>7; 8; 9</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>14, 29, 54</t>
+          <t>14; 29; 54</t>
         </is>
       </c>
     </row>
@@ -882,7 +882,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>7, 8, 9</t>
+          <t>7; 8; 9</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>7, 8, 9</t>
+          <t>7; 8; 9</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -964,12 +964,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>7, 8, 9</t>
+          <t>7; 8; 9</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>14, 15, 16, 29, 30, 31, 42, 43, 41</t>
+          <t>14; 15; 16; 29; 30; 31; 42; 43; 41</t>
         </is>
       </c>
     </row>
@@ -1005,12 +1005,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>7, 10, 13</t>
+          <t>7; 10; 13</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>15, 23</t>
+          <t>15; 23</t>
         </is>
       </c>
     </row>
@@ -1046,12 +1046,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>13, 14</t>
+          <t>13; 14</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>17, 18, 19, 20, 21, 16</t>
+          <t>17; 18; 19; 20; 21; 16</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>13, 15</t>
+          <t>13; 15</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>15, 16</t>
+          <t>15; 16</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>15, 17</t>
+          <t>15; 17</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>15, 18</t>
+          <t>15; 18</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>15, 20</t>
+          <t>15; 20</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>22, 14</t>
+          <t>22; 14</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>24, 19</t>
+          <t>24; 19</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>27, 28</t>
+          <t>27; 28</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>26, 27</t>
+          <t>26; 27</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>8, 10, 13</t>
+          <t>8; 10; 13</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1661,12 +1661,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>13, 29</t>
+          <t>13; 29</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>32, 31, 33</t>
+          <t>32; 31; 33</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>13, 30</t>
+          <t>13; 30</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1743,12 +1743,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>30, 31</t>
+          <t>30; 31</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>34, 35, 36FC+8</t>
+          <t>34; 35; 36FC+8</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>34, 32, 33</t>
+          <t>34; 32; 33</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>36, 35</t>
+          <t>36; 35</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>39, 40</t>
+          <t>39; 40</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>41, 53</t>
+          <t>41; 53</t>
         </is>
       </c>
     </row>
@@ -2112,12 +2112,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>40, 13</t>
+          <t>40; 13</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>42, 46, 47</t>
+          <t>42; 46; 47</t>
         </is>
       </c>
     </row>
@@ -2153,12 +2153,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>13, 41</t>
+          <t>13; 41</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>43, 45FC+5, 47</t>
+          <t>43; 45FC+5; 47</t>
         </is>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>13, 42</t>
+          <t>13; 42</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2317,7 +2317,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>41, 44</t>
+          <t>41; 44</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>41, 42</t>
+          <t>41; 42</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>46, 45, 47</t>
+          <t>46; 45; 47</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>50, 51, 52FC+2</t>
+          <t>50; 51; 52FC+2</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>28, 40, 52, 39, 50, 51</t>
+          <t>28; 40; 52; 39; 50; 51</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>10, 11, 12, 53</t>
+          <t>10; 11; 12; 53</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>4, 55</t>
+          <t>4; 55</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>4, 5</t>
+          <t>4; 5</t>
         </is>
       </c>
     </row>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>7, 8FC+5</t>
+          <t>7; 8FC+5</t>
         </is>
       </c>
     </row>
@@ -3195,12 +3195,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>7, 8</t>
+          <t>7; 8</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>10, 11, 12, 13FC+20, 14FC+35, 15</t>
+          <t>10; 11; 12; 13FC+20; 14FC+35; 15</t>
         </is>
       </c>
     </row>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>17, 18, 19, 20, 21, 22, 23, 24, 25, 26</t>
+          <t>17; 18; 19; 20; 21; 22; 23; 24; 25; 26</t>
         </is>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>27, 28, 29</t>
+          <t>27; 28; 29</t>
         </is>
       </c>
     </row>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29</t>
+          <t>16; 17; 18; 19; 20; 21; 22; 23; 24; 25; 26; 27; 28; 29</t>
         </is>
       </c>
     </row>
@@ -3482,7 +3482,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>10, 11, 12, 15</t>
+          <t>10; 11; 12; 15</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -3523,7 +3523,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>13, 15, 16</t>
+          <t>13; 15; 16</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -3564,12 +3564,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>13, 15, 17</t>
+          <t>13; 15; 17</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>19, 20</t>
+          <t>19; 20</t>
         </is>
       </c>
     </row>
@@ -3605,7 +3605,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>13, 15, 18</t>
+          <t>13; 15; 18</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>13, 15, 18, 19</t>
+          <t>13; 15; 18; 19</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>13, 15, 20</t>
+          <t>13; 15; 20</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>13, 15, 21</t>
+          <t>13; 15; 21</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -3769,12 +3769,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>13, 15, 22</t>
+          <t>13; 15; 22</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>24, 27</t>
+          <t>24; 27</t>
         </is>
       </c>
     </row>
@@ -3810,12 +3810,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>13, 15, 23</t>
+          <t>13; 15; 23</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>25, 26, 27</t>
+          <t>25; 26; 27</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>13, 15, 24</t>
+          <t>13; 15; 24</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>13, 15, 24</t>
+          <t>13; 15; 24</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -3933,7 +3933,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>14, 15, 23, 24, 25, 26</t>
+          <t>14; 15; 23; 24; 25; 26</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>14, 15, 27</t>
+          <t>14; 15; 27</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -4015,7 +4015,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>14, 15, 28</t>
+          <t>14; 15; 28</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>32, 4</t>
+          <t>32; 4</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>4, 5</t>
+          <t>4; 5</t>
         </is>
       </c>
     </row>
@@ -4488,7 +4488,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>6FC+5, 8</t>
+          <t>6FC+5; 8</t>
         </is>
       </c>
     </row>
@@ -4606,12 +4606,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>7, 5</t>
+          <t>7; 5</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>9, 13</t>
+          <t>9; 13</t>
         </is>
       </c>
     </row>
@@ -4652,7 +4652,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>14, 26, 22, 10</t>
+          <t>14; 26; 22; 10</t>
         </is>
       </c>
     </row>
@@ -4693,7 +4693,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>30, 31, 32, 11</t>
+          <t>30; 31; 32; 11</t>
         </is>
       </c>
     </row>
@@ -4734,7 +4734,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>14, 12</t>
+          <t>14; 12</t>
         </is>
       </c>
     </row>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>11, 12, 9</t>
+          <t>11; 12; 9</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5180,7 +5180,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>9, 21</t>
+          <t>9; 21</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -5267,7 +5267,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>25, 30</t>
+          <t>25; 30</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>26, 30</t>
+          <t>26; 30</t>
         </is>
       </c>
     </row>
@@ -5344,7 +5344,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>9, 25</t>
+          <t>9; 25</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -5472,7 +5472,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>30, 31</t>
+          <t>30; 31</t>
         </is>
       </c>
     </row>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>10, 29, 25, 24</t>
+          <t>10; 29; 25; 24</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -5549,12 +5549,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>30, 10, 29</t>
+          <t>30; 10; 29</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>32, 33</t>
+          <t>32; 33</t>
         </is>
       </c>
     </row>
@@ -5590,12 +5590,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>31, 10</t>
+          <t>31; 10</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>34, 33</t>
+          <t>34; 33</t>
         </is>
       </c>
     </row>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>31, 32</t>
+          <t>31; 32</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>33, 32</t>
+          <t>33; 32</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>13, 35</t>
+          <t>13; 35</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>37, 4</t>
+          <t>37; 4</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>4, 5</t>
+          <t>4; 5</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6186,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>7, 8, 9</t>
+          <t>7; 8; 9</t>
         </is>
       </c>
     </row>
@@ -6227,7 +6227,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>10, 11, 12, 13, 14</t>
+          <t>10; 11; 12; 13; 14</t>
         </is>
       </c>
     </row>
@@ -6268,7 +6268,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>10, 11, 12, 13, 29</t>
+          <t>10; 11; 12; 13; 29</t>
         </is>
       </c>
     </row>
@@ -6309,7 +6309,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>10, 11, 12, 13</t>
+          <t>10; 11; 12; 13</t>
         </is>
       </c>
     </row>
@@ -6345,12 +6345,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>7, 8, 9</t>
+          <t>7; 8; 9</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>14, 29, 54</t>
+          <t>14; 29; 54</t>
         </is>
       </c>
     </row>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>7, 8, 9</t>
+          <t>7; 8; 9</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -6427,7 +6427,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>7, 8, 9</t>
+          <t>7; 8; 9</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -6468,12 +6468,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>7, 8, 9</t>
+          <t>7; 8; 9</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>14, 15, 16, 29, 30, 31, 42, 43, 41</t>
+          <t>14; 15; 16; 29; 30; 31; 42; 43; 41</t>
         </is>
       </c>
     </row>
@@ -6509,12 +6509,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>7, 10, 13</t>
+          <t>7; 10; 13</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>15, 23</t>
+          <t>15; 23</t>
         </is>
       </c>
     </row>
@@ -6550,12 +6550,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>13, 14</t>
+          <t>13; 14</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>17, 18, 19, 20, 21, 16</t>
+          <t>17; 18; 19; 20; 21; 16</t>
         </is>
       </c>
     </row>
@@ -6591,7 +6591,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>13, 15</t>
+          <t>13; 15</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -6632,7 +6632,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>15, 16</t>
+          <t>15; 16</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -6673,7 +6673,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>15, 17</t>
+          <t>15; 17</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -6714,7 +6714,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>15, 18</t>
+          <t>15; 18</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>15, 20</t>
+          <t>15; 20</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -6878,7 +6878,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>22, 14</t>
+          <t>22; 14</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -6960,7 +6960,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>24, 19</t>
+          <t>24; 19</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -7006,7 +7006,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>27, 28</t>
+          <t>27; 28</t>
         </is>
       </c>
     </row>
@@ -7083,7 +7083,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>26, 27</t>
+          <t>26; 27</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -7124,7 +7124,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>8, 10, 13</t>
+          <t>8; 10; 13</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -7165,12 +7165,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>13, 29</t>
+          <t>13; 29</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>32, 31, 33</t>
+          <t>32; 31; 33</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7206,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>13, 30</t>
+          <t>13; 30</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -7247,12 +7247,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>30, 31</t>
+          <t>30; 31</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>34, 35, 36FC+8</t>
+          <t>34; 35; 36FC+8</t>
         </is>
       </c>
     </row>
@@ -7370,7 +7370,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>34, 32, 33</t>
+          <t>34; 32; 33</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -7452,7 +7452,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>36, 35</t>
+          <t>36; 35</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -7498,7 +7498,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>39, 40</t>
+          <t>39; 40</t>
         </is>
       </c>
     </row>
@@ -7580,7 +7580,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>41, 53</t>
+          <t>41; 53</t>
         </is>
       </c>
     </row>
@@ -7616,12 +7616,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>40, 13</t>
+          <t>40; 13</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>42, 46, 47</t>
+          <t>42; 46; 47</t>
         </is>
       </c>
     </row>
@@ -7657,12 +7657,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>13, 41</t>
+          <t>13; 41</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>43, 45FC+5, 47</t>
+          <t>43; 45FC+5; 47</t>
         </is>
       </c>
     </row>
@@ -7698,7 +7698,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>13, 42</t>
+          <t>13; 42</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -7821,7 +7821,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>41, 44</t>
+          <t>41; 44</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -7862,7 +7862,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>41, 42</t>
+          <t>41; 42</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -7903,7 +7903,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>46, 45, 47</t>
+          <t>46; 45; 47</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -7949,7 +7949,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>50, 51, 52FC+2</t>
+          <t>50; 51; 52FC+2</t>
         </is>
       </c>
     </row>
@@ -8108,7 +8108,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>28, 40, 52, 39, 50, 51</t>
+          <t>28; 40; 52; 39; 50; 51</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -8149,7 +8149,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>10, 11, 12, 53</t>
+          <t>10; 11; 12; 53</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>4, 55</t>
+          <t>4; 55</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -8458,7 +8458,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>4, 5</t>
+          <t>4; 5</t>
         </is>
       </c>
     </row>
@@ -8581,7 +8581,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>7, 8FC+5</t>
+          <t>7; 8FC+5</t>
         </is>
       </c>
     </row>
@@ -8699,12 +8699,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>7, 8</t>
+          <t>7; 8</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>10, 11, 12, 13FC+20, 14FC+35, 15</t>
+          <t>10; 11; 12; 13FC+20; 14FC+35; 15</t>
         </is>
       </c>
     </row>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>17, 18, 19, 20, 21, 22, 23, 24, 25, 26</t>
+          <t>17; 18; 19; 20; 21; 22; 23; 24; 25; 26</t>
         </is>
       </c>
     </row>
@@ -8909,7 +8909,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>27, 28, 29</t>
+          <t>27; 28; 29</t>
         </is>
       </c>
     </row>
@@ -8950,7 +8950,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29</t>
+          <t>16; 17; 18; 19; 20; 21; 22; 23; 24; 25; 26; 27; 28; 29</t>
         </is>
       </c>
     </row>
@@ -8986,7 +8986,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>10, 11, 12, 15</t>
+          <t>10; 11; 12; 15</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>13, 15, 16</t>
+          <t>13; 15; 16</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -9068,12 +9068,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>13, 15, 17</t>
+          <t>13; 15; 17</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>19, 20</t>
+          <t>19; 20</t>
         </is>
       </c>
     </row>
@@ -9109,7 +9109,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>13, 15, 18</t>
+          <t>13; 15; 18</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -9150,7 +9150,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>13, 15, 18, 19</t>
+          <t>13; 15; 18; 19</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -9191,7 +9191,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>13, 15, 20</t>
+          <t>13; 15; 20</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -9232,7 +9232,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>13, 15, 21</t>
+          <t>13; 15; 21</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -9273,12 +9273,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>13, 15, 22</t>
+          <t>13; 15; 22</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>24, 27</t>
+          <t>24; 27</t>
         </is>
       </c>
     </row>
@@ -9314,12 +9314,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>13, 15, 23</t>
+          <t>13; 15; 23</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>25, 26, 27</t>
+          <t>25; 26; 27</t>
         </is>
       </c>
     </row>
@@ -9355,7 +9355,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>13, 15, 24</t>
+          <t>13; 15; 24</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>13, 15, 24</t>
+          <t>13; 15; 24</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -9437,7 +9437,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>14, 15, 23, 24, 25, 26</t>
+          <t>14; 15; 23; 24; 25; 26</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -9478,7 +9478,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>14, 15, 27</t>
+          <t>14; 15; 27</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -9519,7 +9519,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>14, 15, 28</t>
+          <t>14; 15; 28</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -9683,7 +9683,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>32, 4</t>
+          <t>32; 4</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -9910,7 +9910,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>4, 5</t>
+          <t>4; 5</t>
         </is>
       </c>
     </row>
@@ -9992,7 +9992,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>6FC+5, 8</t>
+          <t>6FC+5; 8</t>
         </is>
       </c>
     </row>
@@ -10110,12 +10110,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>7, 5</t>
+          <t>7; 5</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>9, 13</t>
+          <t>9; 13</t>
         </is>
       </c>
     </row>
@@ -10156,7 +10156,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>14, 26, 22, 10</t>
+          <t>14; 26; 22; 10</t>
         </is>
       </c>
     </row>
@@ -10197,7 +10197,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>30, 31, 32, 11</t>
+          <t>30; 31; 32; 11</t>
         </is>
       </c>
     </row>
@@ -10238,7 +10238,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>14, 12</t>
+          <t>14; 12</t>
         </is>
       </c>
     </row>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>11, 12, 9</t>
+          <t>11; 12; 9</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>9, 21</t>
+          <t>9; 21</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -10771,7 +10771,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>25, 30</t>
+          <t>25; 30</t>
         </is>
       </c>
     </row>
@@ -10812,7 +10812,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>26, 30</t>
+          <t>26; 30</t>
         </is>
       </c>
     </row>
@@ -10848,7 +10848,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>9, 25</t>
+          <t>9; 25</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -10976,7 +10976,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>30, 31</t>
+          <t>30; 31</t>
         </is>
       </c>
     </row>
@@ -11012,7 +11012,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>10, 29, 25, 24</t>
+          <t>10; 29; 25; 24</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -11053,12 +11053,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>30, 10, 29</t>
+          <t>30; 10; 29</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>32, 33</t>
+          <t>32; 33</t>
         </is>
       </c>
     </row>
@@ -11094,12 +11094,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>31, 10</t>
+          <t>31; 10</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>34, 33</t>
+          <t>34; 33</t>
         </is>
       </c>
     </row>
@@ -11135,7 +11135,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>31, 32</t>
+          <t>31; 32</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>33, 32</t>
+          <t>33; 32</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -11258,7 +11258,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>13, 35</t>
+          <t>13; 35</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -11340,7 +11340,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>37, 4</t>
+          <t>37; 4</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
